--- a/db/gums seed data v6.xlsx
+++ b/db/gums seed data v6.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="906">
   <si>
     <t>Cool Mint + Melon Fresco</t>
   </si>
@@ -1494,9 +1494,6 @@
     <t>hubba_bubba_max_strawberry_watermelon</t>
   </si>
   <si>
-    <t>hubba_bubba_max_sweet_&amp;_sassy_cherry</t>
-  </si>
-  <si>
     <t>hubba_bubba_max_mystery_flavor</t>
   </si>
   <si>
@@ -1521,9 +1518,6 @@
     <t>hubba_bubba_bubble_tape_mystery_flavor</t>
   </si>
   <si>
-    <t>hubba_bubba_ouch!_bubble_gum</t>
-  </si>
-  <si>
     <t>wrigleys_juicy_fruit_juicy_secret</t>
   </si>
   <si>
@@ -1983,6 +1977,9 @@
     <t>012546670302</t>
   </si>
   <si>
+    <t>jpeg</t>
+  </si>
+  <si>
     <t>012546612678</t>
   </si>
   <si>
@@ -2737,6 +2734,12 @@
   </si>
   <si>
     <t>Trident Vitality(TM) Awaken(TM)</t>
+  </si>
+  <si>
+    <t>hubba_bubba_max_sweet_sassy_cherry</t>
+  </si>
+  <si>
+    <t>hubba_bubba_ouch_bubble_gum</t>
   </si>
 </sst>
 </file>
@@ -4575,9 +4578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M177" sqref="M177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4610,7 +4613,7 @@
         <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>126</v>
@@ -4637,15 +4640,15 @@
         <v>133</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>100</v>
@@ -4657,16 +4660,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>232</v>
@@ -4682,15 +4685,15 @@
         <v>trident_layers_cool_mint_melon_fresco.png</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>101</v>
@@ -4702,16 +4705,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>232</v>
@@ -4727,18 +4730,18 @@
         <v>trident_layers_wild_strawberry_tangy_citrus.png</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4747,16 +4750,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>232</v>
@@ -4772,18 +4775,18 @@
         <v>trident_layers_green_apple_golden_pineapple.png</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -4792,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>135</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>232</v>
@@ -4817,18 +4820,18 @@
         <v>trident_layers_orchard_peach_ripe_mango.png</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4837,16 +4840,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>232</v>
@@ -4862,15 +4865,15 @@
         <v>trident_layers_sweet_cherry_island_lime.png</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>156</v>
@@ -4882,16 +4885,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>137</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>232</v>
@@ -4907,7 +4910,7 @@
         <v>trident_layers_juicy_berry_tangy_tangerine.png</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4915,7 +4918,7 @@
         <v>393</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>156</v>
@@ -4927,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>138</v>
@@ -4949,7 +4952,7 @@
         <v>trident_vitality_zen.png</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4957,7 +4960,7 @@
         <v>394</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>156</v>
@@ -4969,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>139</v>
@@ -4991,7 +4994,7 @@
         <v>trident_vitality_balance.png</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4999,10 +5002,10 @@
         <v>395</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5011,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>141</v>
@@ -5033,7 +5036,7 @@
         <v>trident_vitality_vigorate.png</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5041,10 +5044,10 @@
         <v>396</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5053,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>142</v>
@@ -5075,7 +5078,7 @@
         <v>trident_vitality_rejuve.png</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5083,10 +5086,10 @@
         <v>397</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -5095,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>143</v>
@@ -5117,18 +5120,18 @@
         <v>trident_vitality_awaken.png</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5137,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
@@ -5162,18 +5165,18 @@
         <v>trident_xtra_care_spearmint.png</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -5182,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>3</v>
@@ -5207,18 +5210,18 @@
         <v>trident_xtra_care_peppermint.png</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -5227,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>4</v>
@@ -5252,19 +5255,19 @@
         <v>trident_xtra_care_cool_mint.png</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>790</v>
-      </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
@@ -5272,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>29</v>
@@ -5297,7 +5300,7 @@
         <v>trident_xtra_care_cool_citrus.jpg</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5305,7 +5308,7 @@
         <v>398</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>159</v>
@@ -5317,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>5</v>
@@ -5342,7 +5345,7 @@
         <v>trident_splash_orange_swirl.jpg</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5350,7 +5353,7 @@
         <v>399</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>185</v>
@@ -5362,10 +5365,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>6</v>
@@ -5387,7 +5390,7 @@
         <v>trident_splash_pucker_me_berry.jpg</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5395,7 +5398,7 @@
         <v>400</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>161</v>
@@ -5407,10 +5410,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>7</v>
@@ -5432,7 +5435,7 @@
         <v>trident_splash_peppermint_swirl.jpg</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5440,7 +5443,7 @@
         <v>401</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>165</v>
@@ -5452,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>148</v>
@@ -5477,7 +5480,7 @@
         <v>trident_splash_strawberry_lime.jpg</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5485,10 +5488,10 @@
         <v>402</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -5497,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>151</v>
@@ -5522,7 +5525,7 @@
         <v>trident_splash_apple_rasberry.jpg</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5530,7 +5533,7 @@
         <v>403</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>170</v>
@@ -5542,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>152</v>
@@ -5567,7 +5570,7 @@
         <v>trident_splash_citrus_blackberry.jpg</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5575,10 +5578,10 @@
         <v>404</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -5587,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>8</v>
@@ -5612,7 +5615,7 @@
         <v>trident_wintergreen.png</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5620,10 +5623,10 @@
         <v>405</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -5632,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>9</v>
@@ -5657,7 +5660,7 @@
         <v>trident_strawberry_twist.png</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5665,10 +5668,10 @@
         <v>406</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -5677,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>10</v>
@@ -5702,7 +5705,7 @@
         <v>trident_cinnamon.png</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5710,10 +5713,10 @@
         <v>407</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -5722,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>11</v>
@@ -5747,7 +5750,7 @@
         <v>trident_bubblegum.png</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5755,10 +5758,10 @@
         <v>408</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -5767,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>12</v>
@@ -5792,7 +5795,7 @@
         <v>trident_minty_sweet_twist.png</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5800,10 +5803,10 @@
         <v>409</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -5812,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>13</v>
@@ -5837,7 +5840,7 @@
         <v>trident_original_flavor.png</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -5845,10 +5848,10 @@
         <v>410</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -5857,10 +5860,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>14</v>
@@ -5882,7 +5885,7 @@
         <v>trident_passionberry_twist.png</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5890,10 +5893,10 @@
         <v>411</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -5902,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>2</v>
@@ -5927,7 +5930,7 @@
         <v>trident_spearmint.png</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -5935,10 +5938,10 @@
         <v>412</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -5947,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>15</v>
@@ -5972,7 +5975,7 @@
         <v>trident_tropical_twist.png</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -5980,10 +5983,10 @@
         <v>413</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -5992,10 +5995,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>16</v>
@@ -6017,7 +6020,7 @@
         <v>trident_watermelon_twist.png</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -6025,10 +6028,10 @@
         <v>414</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -6037,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>17</v>
@@ -6062,18 +6065,18 @@
         <v>trident_wild_blueberry_twist.png</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -6082,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>153</v>
@@ -6107,15 +6110,15 @@
         <v>trident_splashing_fruit.png</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>156</v>
@@ -6127,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>153</v>
@@ -6152,33 +6155,33 @@
         <v>trident_splashing_mint.png</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>153</v>
@@ -6197,7 +6200,7 @@
         <v>trident_island_berry_lime.jpg</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6205,7 +6208,7 @@
         <v>415</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>156</v>
@@ -6217,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>147</v>
@@ -6242,7 +6245,7 @@
         <v>trident_white_micro_crystals.png</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6250,10 +6253,10 @@
         <v>416</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -6262,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>30</v>
@@ -6287,7 +6290,7 @@
         <v>trident_white_cool_mangoberry.jpg</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6295,10 +6298,10 @@
         <v>417</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -6307,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>3</v>
@@ -6332,7 +6335,7 @@
         <v>trident_white_peppermint.png</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6340,10 +6343,10 @@
         <v>418</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -6352,10 +6355,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>2</v>
@@ -6377,7 +6380,7 @@
         <v>trident_white_spearmint.png</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6385,10 +6388,10 @@
         <v>419</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -6397,10 +6400,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>31</v>
@@ -6422,7 +6425,7 @@
         <v>trident_white_cool_colada.jpg</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6430,10 +6433,10 @@
         <v>420</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -6442,10 +6445,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>8</v>
@@ -6467,7 +6470,7 @@
         <v>trident_white_wintergreen.png</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6475,10 +6478,10 @@
         <v>421</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -6487,10 +6490,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>32</v>
@@ -6512,7 +6515,7 @@
         <v>trident_white_cool_rush.png</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6520,10 +6523,10 @@
         <v>422</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -6532,10 +6535,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>33</v>
@@ -6557,7 +6560,7 @@
         <v>trident_white_cinnamon_tingle.jpg</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -6565,22 +6568,22 @@
         <v>423</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>34</v>
@@ -6602,7 +6605,7 @@
         <v>trident_white_cool_bubble.jpg</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -6613,7 +6616,7 @@
         <v>277</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -6622,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>105</v>
@@ -6644,7 +6647,7 @@
         <v>dentyne_ice_peppermint.png</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="9" customFormat="1">
@@ -6655,7 +6658,7 @@
         <v>278</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D47" s="9">
         <v>1</v>
@@ -6664,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>105</v>
@@ -6686,7 +6689,7 @@
         <v>dentyne_ice_spearmint.png</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -6697,7 +6700,7 @@
         <v>279</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -6706,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>105</v>
@@ -6728,7 +6731,7 @@
         <v>dentyne_ice_arctic_chill.png</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -6748,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>105</v>
@@ -6770,19 +6773,19 @@
         <v>dentyne_ice_mint_frost.png</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>816</v>
-      </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
@@ -6790,13 +6793,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>192</v>
@@ -6812,19 +6815,19 @@
         <v>dentyne_ice_mint_medley.png</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>820</v>
-      </c>
       <c r="D51" s="4">
         <v>1</v>
       </c>
@@ -6832,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>192</v>
@@ -6854,19 +6857,19 @@
         <v>dentyne_ice_shiver_mint.png</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>826</v>
-      </c>
       <c r="D52" s="4">
         <v>1</v>
       </c>
@@ -6874,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>192</v>
@@ -6896,7 +6899,7 @@
         <v>dentyne_ice_vanilla_chill.png</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -6907,7 +6910,7 @@
         <v>281</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -6916,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>106</v>
@@ -6938,7 +6941,7 @@
         <v>dentyne_fire_spicy_cinnamon.png</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -6949,7 +6952,7 @@
         <v>282</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -6958,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>107</v>
@@ -6983,7 +6986,7 @@
         <v>dentyne_pure_mint_with_melon.png</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -6994,7 +6997,7 @@
         <v>283</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -7003,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>107</v>
@@ -7028,7 +7031,7 @@
         <v>dentyne_pure_mint_with_herbal.png</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -7039,7 +7042,7 @@
         <v>284</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -7048,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>107</v>
@@ -7073,7 +7076,7 @@
         <v>dentyne_pure_mint_with_citrus.png</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -7093,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>108</v>
@@ -7115,7 +7118,7 @@
         <v>stride_spark_kinetic_fruit.jpg</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -7126,7 +7129,7 @@
         <v>286</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -7135,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>108</v>
@@ -7157,7 +7160,7 @@
         <v>stride_spark_kinetic_mint.jpg</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -7168,7 +7171,7 @@
         <v>287</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -7177,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>108</v>
@@ -7199,7 +7202,7 @@
         <v>stride_spark_kinetic_berry.jpg</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -7219,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>109</v>
@@ -7241,7 +7244,7 @@
         <v>stride_shift_berry_to_mint.jpg</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7261,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>109</v>
@@ -7283,18 +7286,18 @@
         <v>stride_shift_citrus_to_mint.jpg</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>290</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -7303,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>110</v>
@@ -7325,12 +7328,12 @@
         <v>stride_2_winterblue.jpg</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>291</v>
@@ -7345,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>110</v>
@@ -7367,18 +7370,18 @@
         <v>stride_2_uber_bubble.jpg</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>292</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -7387,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>110</v>
@@ -7409,12 +7412,12 @@
         <v>stride_2_sweet_peppermint.jpg</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>293</v>
@@ -7429,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>110</v>
@@ -7451,12 +7454,12 @@
         <v>stride_2_sweet_cinnamon.jpg</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>294</v>
@@ -7471,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>110</v>
@@ -7493,12 +7496,12 @@
         <v>stride_2_sweet_berry.jpg</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>295</v>
@@ -7513,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>110</v>
@@ -7535,18 +7538,18 @@
         <v>stride_2_sweet_mint.jpg</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>296</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -7555,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>110</v>
@@ -7577,12 +7580,12 @@
         <v>stride_2_spearmint.jpg</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>297</v>
@@ -7597,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>110</v>
@@ -7619,12 +7622,12 @@
         <v>stride_2_nonstop_mint.jpg</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>298</v>
@@ -7639,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>110</v>
@@ -7661,7 +7664,7 @@
         <v>stride_2_forever_fruit.jpg</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -7672,7 +7675,7 @@
         <v>299</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -7681,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>82</v>
@@ -7703,7 +7706,7 @@
         <v>stride_mintacular.jpg</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -7723,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>82</v>
@@ -7741,11 +7744,11 @@
         <v>0</v>
       </c>
       <c r="M72" s="4" t="str">
-        <f t="shared" ref="M72:M130" si="7">CONCATENATE(A72,".",N72)</f>
+        <f t="shared" ref="M72:M135" si="7">CONCATENATE(A72,".",N72)</f>
         <v>stride_mega_mystery.jpg</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -7756,7 +7759,7 @@
         <v>301</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -7765,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>82</v>
@@ -7787,7 +7790,7 @@
         <v>stride_whitemint.jpg</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -7798,7 +7801,7 @@
         <v>302</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -7807,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>82</v>
@@ -7829,7 +7832,7 @@
         <v>stride_tropical_trance.jpg</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -7849,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>82</v>
@@ -7871,7 +7874,7 @@
         <v>stride_eternal_melon.jpg</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -7891,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>82</v>
@@ -7913,7 +7916,7 @@
         <v>stride_nonstop_mint.jpg</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -7924,7 +7927,7 @@
         <v>305</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
@@ -7933,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>82</v>
@@ -7955,7 +7958,7 @@
         <v>stride_winterblue.jpg</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -7975,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>82</v>
@@ -7997,7 +8000,7 @@
         <v>stride_spearmint.jpg</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8017,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>82</v>
@@ -8039,7 +8042,7 @@
         <v>stride_sweet_peppermint.jpg</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8059,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>82</v>
@@ -8081,7 +8084,7 @@
         <v>stride_sweet_berry.jpg</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>82</v>
@@ -8123,7 +8126,7 @@
         <v>stride_uber_bubble.jpg</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -8143,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>82</v>
@@ -8165,7 +8168,7 @@
         <v>stride_sweet_cinnamon.jpg</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8185,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>82</v>
@@ -8207,7 +8210,7 @@
         <v>stride_forever_fruit.jpg</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -8227,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>82</v>
@@ -8249,33 +8252,33 @@
         <v>stride_always_mandarin.jpg</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-      <c r="E85" s="4">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>657</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>225</v>
@@ -8291,7 +8294,7 @@
         <v>stride_lover_boy_fearless_fruit.jpg</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8302,7 +8305,7 @@
         <v>313</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -8311,19 +8314,19 @@
         <v>0</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>111</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>225</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>98</v>
@@ -8336,7 +8339,7 @@
         <v>adams_chiclets_fruit.jpg</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8356,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>111</v>
@@ -8378,7 +8381,7 @@
         <v>adams_chiclets_peppermint.jpg</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -8398,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>111</v>
@@ -8420,7 +8423,7 @@
         <v>adams_chiclets_spearmint.jpg</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -8431,7 +8434,7 @@
         <v>316</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -8462,7 +8465,7 @@
         <v>extra_dessert_delights_apple_pie.png</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -8473,7 +8476,7 @@
         <v>317</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -8504,7 +8507,7 @@
         <v>extra_dessert_delights_orange_creme_pop.png</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -8546,7 +8549,7 @@
         <v>extra_dessert_delights_mint_chocolate_chip.png</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -8557,7 +8560,7 @@
         <v>319</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -8588,7 +8591,7 @@
         <v>extra_dessert_delights_strawberry_shortcake.png</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -8630,7 +8633,7 @@
         <v>extra_dessert_delights_key_lime_pie.png</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -8641,7 +8644,7 @@
         <v>321</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -8672,7 +8675,7 @@
         <v>extra_dessert_delights_root_beer_float.png</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -8714,7 +8717,7 @@
         <v>extra_dessert_delights_rainbow_sherbert.png</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -8725,7 +8728,7 @@
         <v>323</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -8756,7 +8759,7 @@
         <v>extra_fruit_sensations_sweet_watermelon.png</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -8798,18 +8801,18 @@
         <v>extra_fruit_sensations_sweet_tropical.png</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -8824,7 +8827,7 @@
         <v>113</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>201</v>
@@ -8840,7 +8843,7 @@
         <v>extra_fruit_sensations_strawberry_banana.png</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -8851,7 +8854,7 @@
         <v>325</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -8882,7 +8885,7 @@
         <v>extra_spearmint.png</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -8893,7 +8896,7 @@
         <v>326</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -8924,7 +8927,7 @@
         <v>extra_peppermint.png</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -8935,7 +8938,7 @@
         <v>327</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -8966,7 +8969,7 @@
         <v>extra_polar_ice.png</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -8977,7 +8980,7 @@
         <v>328</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -9008,7 +9011,7 @@
         <v>extra_smooth_mint.png</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -9019,7 +9022,7 @@
         <v>329</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -9050,7 +9053,7 @@
         <v>extra_winterfresh.png</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -9061,7 +9064,7 @@
         <v>330</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -9092,7 +9095,7 @@
         <v>extra_classic_bubble.png</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -9103,7 +9106,7 @@
         <v>331</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -9118,13 +9121,13 @@
         <v>35</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>171</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>98</v>
@@ -9137,7 +9140,7 @@
         <v>5_gum_rain.jpg</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -9148,7 +9151,7 @@
         <v>332</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -9163,7 +9166,7 @@
         <v>35</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>172</v>
@@ -9179,7 +9182,7 @@
         <v>5_gum_cobalt.jpg</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -9190,7 +9193,7 @@
         <v>333</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -9205,7 +9208,7 @@
         <v>35</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>173</v>
@@ -9221,7 +9224,7 @@
         <v>5_gum_flare.jpg</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -9232,7 +9235,7 @@
         <v>334</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -9247,7 +9250,7 @@
         <v>35</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I108" s="8" t="s">
         <v>174</v>
@@ -9263,7 +9266,7 @@
         <v>5_gum_elixir.jpg</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -9274,7 +9277,7 @@
         <v>335</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -9289,7 +9292,7 @@
         <v>35</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>175</v>
@@ -9305,18 +9308,18 @@
         <v>5_gum_solstice.jpg</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -9331,7 +9334,7 @@
         <v>35</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>176</v>
@@ -9347,18 +9350,18 @@
         <v>5_gum_react_2_fruit.jpg</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -9373,7 +9376,7 @@
         <v>35</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>177</v>
@@ -9389,7 +9392,7 @@
         <v>5_gum_react_2_mint.jpg</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9400,7 +9403,7 @@
         <v>338</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -9415,7 +9418,7 @@
         <v>35</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I112" s="8" t="s">
         <v>178</v>
@@ -9431,7 +9434,7 @@
         <v>5_gum_prism.jpg</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -9442,7 +9445,7 @@
         <v>339</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -9457,7 +9460,7 @@
         <v>35</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I113" s="8" t="s">
         <v>179</v>
@@ -9473,7 +9476,7 @@
         <v>5_gum_vortex.jpg</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -9499,7 +9502,7 @@
         <v>35</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>180</v>
@@ -9515,7 +9518,7 @@
         <v>5_gum_swerve.jpg</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -9526,7 +9529,7 @@
         <v>341</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -9541,7 +9544,7 @@
         <v>35</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I115" s="8" t="s">
         <v>181</v>
@@ -9557,7 +9560,7 @@
         <v>5_gum_rpm_fruit.jpg</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -9568,7 +9571,7 @@
         <v>342</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -9583,7 +9586,7 @@
         <v>35</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>182</v>
@@ -9599,15 +9602,15 @@
         <v>5_gum_rpm_mint.jpg</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>156</v>
@@ -9625,10 +9628,10 @@
         <v>35</v>
       </c>
       <c r="H117" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="I117" s="8" t="s">
         <v>672</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>673</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>98</v>
@@ -9641,18 +9644,18 @@
         <v>5_gum_beta.png</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>798</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>799</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -9667,7 +9670,7 @@
         <v>35</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I118" s="8" t="s">
         <v>180</v>
@@ -9683,18 +9686,18 @@
         <v>5_gum_lush.png</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>808</v>
-      </c>
       <c r="C119" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -9709,7 +9712,7 @@
         <v>35</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I119" s="8"/>
       <c r="K119" s="4" t="s">
@@ -9723,18 +9726,18 @@
         <v>5_gum_zing.png</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>388</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -9758,21 +9761,21 @@
         <v>0</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -9796,10 +9799,10 @@
         <v>0</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -9810,7 +9813,7 @@
         <v>343</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -9841,7 +9844,7 @@
         <v>wrigleys_big_red_cinnamon.jpg</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -9852,7 +9855,7 @@
         <v>344</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
@@ -9883,7 +9886,7 @@
         <v>wrigleys_doublemint_mint.jpg</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -9894,7 +9897,7 @@
         <v>345</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
@@ -9925,7 +9928,7 @@
         <v>eclipse_spearmint.jpg</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -9936,7 +9939,7 @@
         <v>346</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -9967,7 +9970,7 @@
         <v>eclipse_polar_ice.jpg</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -9978,7 +9981,7 @@
         <v>347</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -10009,7 +10012,7 @@
         <v>eclipse_peppermint.jpg</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -10020,7 +10023,7 @@
         <v>348</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -10051,7 +10054,7 @@
         <v>eclipse_winterfrost.jpg</v>
       </c>
       <c r="N127" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -10062,7 +10065,7 @@
         <v>349</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -10093,7 +10096,7 @@
         <v>freedent_peppermint.jpg</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -10104,7 +10107,7 @@
         <v>350</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -10135,7 +10138,7 @@
         <v>freedent_spearmint.jpg</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -10177,562 +10180,681 @@
         <v>freedent_winterfresh.jpg</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="9" customFormat="1">
+      <c r="A131" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D131" s="4">
-        <v>1</v>
-      </c>
-      <c r="E131" s="4">
-        <v>0</v>
-      </c>
-      <c r="F131" s="4" t="s">
+      <c r="D131" s="9">
+        <v>1</v>
+      </c>
+      <c r="E131" s="9">
+        <v>0</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H131" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" s="4" t="s">
+      <c r="K131" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L131" s="9">
+        <v>0</v>
+      </c>
+      <c r="M131" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>hubba_bubba_max_outrageous_original.jpg</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="9" customFormat="1">
+      <c r="A132" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D132" s="4">
-        <v>1</v>
-      </c>
-      <c r="E132" s="4">
-        <v>0</v>
-      </c>
-      <c r="F132" s="4" t="s">
+      <c r="D132" s="9">
+        <v>1</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G132" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H132" s="4" t="s">
+      <c r="H132" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K132" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" s="4" t="s">
+      <c r="K132" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L132" s="9">
+        <v>0</v>
+      </c>
+      <c r="M132" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>hubba_bubba_max_strawberry_watermelon.jpg</v>
+      </c>
+      <c r="N132" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="9" customFormat="1">
+      <c r="A133" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D133" s="9">
+        <v>1</v>
+      </c>
+      <c r="E133" s="9">
+        <v>0</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L133" s="9">
+        <v>0</v>
+      </c>
+      <c r="M133" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>hubba_bubba_max_sweet_sassy_cherry.jpg</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="9" customFormat="1">
+      <c r="A134" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C133" s="7" t="s">
+      <c r="B134" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D133" s="4">
-        <v>1</v>
-      </c>
-      <c r="E133" s="4">
-        <v>0</v>
-      </c>
-      <c r="F133" s="4" t="s">
+      <c r="D134" s="9">
+        <v>1</v>
+      </c>
+      <c r="E134" s="9">
+        <v>0</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G134" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L133" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134" s="4" t="s">
+      <c r="H134" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L134" s="9">
+        <v>0</v>
+      </c>
+      <c r="M134" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>hubba_bubba_max_mystery_flavor.jpg</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="9" customFormat="1">
+      <c r="A135" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C134" s="7" t="s">
+      <c r="B135" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D134" s="4">
-        <v>1</v>
-      </c>
-      <c r="E134" s="4">
-        <v>0</v>
-      </c>
-      <c r="F134" s="4" t="s">
+      <c r="D135" s="9">
+        <v>1</v>
+      </c>
+      <c r="E135" s="9">
+        <v>0</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H134" s="4" t="s">
+      <c r="G135" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L135" s="9">
+        <v>0</v>
+      </c>
+      <c r="M135" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>hubba_bubba_squeeze_pop_assorted_sour_flavors.jpg</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="9" customFormat="1">
+      <c r="A136" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="D136" s="9">
+        <v>1</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L136" s="9">
+        <v>0</v>
+      </c>
+      <c r="M136" s="9" t="str">
+        <f t="shared" ref="M136:M147" si="13">CONCATENATE(A136,".",N136)</f>
+        <v>hubba_bubba_bubble_tape_awesome_original.jpg</v>
+      </c>
+      <c r="N136" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="9" customFormat="1">
+      <c r="A137" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="9">
+        <v>1</v>
+      </c>
+      <c r="E137" s="9">
+        <v>0</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L137" s="9">
+        <v>0</v>
+      </c>
+      <c r="M137" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>hubba_bubba_bubble_tape_snappy_strawberry.jpg</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="9" customFormat="1">
+      <c r="A138" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" s="9">
+        <v>1</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L138" s="9">
+        <v>0</v>
+      </c>
+      <c r="M138" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>hubba_bubba_bubble_tape_sour_apple.jpg</v>
+      </c>
+      <c r="N138" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="9" customFormat="1">
+      <c r="A139" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D139" s="9">
+        <v>1</v>
+      </c>
+      <c r="E139" s="9">
+        <v>0</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L139" s="9">
+        <v>0</v>
+      </c>
+      <c r="M139" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>hubba_bubba_bubble_tape_triple_treat.jpg</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="9" customFormat="1">
+      <c r="A140" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" s="9">
+        <v>1</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L140" s="9">
+        <v>0</v>
+      </c>
+      <c r="M140" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>hubba_bubba_bubble_tape_tangy_tropical.jpg</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="9" customFormat="1">
+      <c r="A141" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="9">
+        <v>0</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H141" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K134" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C135" s="7" t="s">
+      <c r="K141" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L141" s="9">
+        <v>0</v>
+      </c>
+      <c r="M141" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>hubba_bubba_bubble_tape_mystery_flavor.jpeg</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="9" customFormat="1">
+      <c r="A142" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D135" s="4">
-        <v>1</v>
-      </c>
-      <c r="E135" s="4">
-        <v>0</v>
-      </c>
-      <c r="F135" s="4" t="s">
+      <c r="D142" s="9">
+        <v>1</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K135" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="D136" s="4">
-        <v>1</v>
-      </c>
-      <c r="E136" s="4">
-        <v>0</v>
-      </c>
-      <c r="F136" s="4" t="s">
+      <c r="G142" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L142" s="9">
+        <v>0</v>
+      </c>
+      <c r="M142" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>hubba_bubba_ouch_bubble_gum.jpg</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="9" customFormat="1">
+      <c r="A143" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
+      <c r="E143" s="9">
+        <v>0</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C137" s="7" t="s">
+      <c r="G143" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L143" s="9">
+        <v>0</v>
+      </c>
+      <c r="M143" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>wrigleys_juicy_fruit_juicy_secret.jpg</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="9" customFormat="1">
+      <c r="A144" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D144" s="9">
+        <v>1</v>
+      </c>
+      <c r="E144" s="9">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L144" s="9">
+        <v>0</v>
+      </c>
+      <c r="M144" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>wrigleys_juicy_fruit_original.jpg</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="9" customFormat="1">
+      <c r="A145" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D137" s="4">
-        <v>1</v>
-      </c>
-      <c r="E137" s="4">
-        <v>0</v>
-      </c>
-      <c r="F137" s="4" t="s">
+      <c r="D145" s="9">
+        <v>1</v>
+      </c>
+      <c r="E145" s="9">
+        <v>0</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="G145" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L145" s="9">
+        <v>0</v>
+      </c>
+      <c r="M145" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>wrigleys_juicy_fruit_sweet_fruit.jpg</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="9" customFormat="1">
+      <c r="A146" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D138" s="4">
-        <v>1</v>
-      </c>
-      <c r="E138" s="4">
-        <v>0</v>
-      </c>
-      <c r="F138" s="4" t="s">
+      <c r="D146" s="9">
+        <v>1</v>
+      </c>
+      <c r="E146" s="9">
+        <v>0</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C139" s="7" t="s">
+      <c r="G146" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L146" s="9">
+        <v>0</v>
+      </c>
+      <c r="M146" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>wrigleys_juicy_fruit_sweet_berry.jpg</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="9" customFormat="1">
+      <c r="A147" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D139" s="4">
-        <v>1</v>
-      </c>
-      <c r="E139" s="4">
-        <v>0</v>
-      </c>
-      <c r="F139" s="4" t="s">
+      <c r="D147" s="9">
+        <v>1</v>
+      </c>
+      <c r="E147" s="9">
+        <v>0</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D140" s="4">
-        <v>1</v>
-      </c>
-      <c r="E140" s="4">
-        <v>0</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="A141" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D141" s="4">
-        <v>1</v>
-      </c>
-      <c r="E141" s="4">
-        <v>0</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="A142" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D142" s="4">
-        <v>1</v>
-      </c>
-      <c r="E142" s="4">
-        <v>0</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D143" s="4">
-        <v>1</v>
-      </c>
-      <c r="E143" s="4">
-        <v>0</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G143" s="4" t="s">
+      <c r="G147" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D144" s="4">
-        <v>1</v>
-      </c>
-      <c r="E144" s="4">
-        <v>0</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D145" s="4">
-        <v>1</v>
-      </c>
-      <c r="E145" s="4">
-        <v>0</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="A146" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1</v>
-      </c>
-      <c r="E146" s="4">
-        <v>0</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D147" s="4">
-        <v>1</v>
-      </c>
-      <c r="E147" s="4">
-        <v>0</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H147" s="4" t="s">
+      <c r="H147" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K147" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L147" s="4">
-        <v>0</v>
+      <c r="K147" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L147" s="9">
+        <v>0</v>
+      </c>
+      <c r="M147" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>wrigleys_juicy_fruit_groovy_fruity.jpeg</v>
+      </c>
+      <c r="N147" s="9" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>369</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
@@ -10756,22 +10878,22 @@
         <v>0</v>
       </c>
       <c r="M148" s="4" t="str">
-        <f t="shared" ref="M148:M166" si="13">CONCATENATE(A148,".",N148)</f>
+        <f t="shared" ref="M148:M166" si="14">CONCATENATE(A148,".",N148)</f>
         <v>orbit_peppermint.png</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>370</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
@@ -10795,22 +10917,22 @@
         <v>0</v>
       </c>
       <c r="M149" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_spearmint.png</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>371</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -10834,22 +10956,22 @@
         <v>0</v>
       </c>
       <c r="M150" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_bubblemint.png</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>372</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
@@ -10873,22 +10995,22 @@
         <v>0</v>
       </c>
       <c r="M151" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_wintermint.png</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>373</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -10912,22 +11034,22 @@
         <v>0</v>
       </c>
       <c r="M152" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_cinnamint.png</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>374</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -10951,16 +11073,16 @@
         <v>0</v>
       </c>
       <c r="M153" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_sweetmint.png</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>375</v>
@@ -10990,22 +11112,22 @@
         <v>0</v>
       </c>
       <c r="M154" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_maui_melon_mint.png</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>376</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -11029,22 +11151,22 @@
         <v>0</v>
       </c>
       <c r="M155" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_wildberry_remix.png</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>377</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -11068,22 +11190,22 @@
         <v>0</v>
       </c>
       <c r="M156" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_melon_remix.png</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>378</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -11107,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="M157" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_tropical_remix.png</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>379</v>
@@ -11146,22 +11268,22 @@
         <v>0</v>
       </c>
       <c r="M158" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_strawberry_remix.png</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>380</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -11179,7 +11301,7 @@
         <v>66</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>98</v>
@@ -11188,22 +11310,22 @@
         <v>0</v>
       </c>
       <c r="M159" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_mist_raspberry_lemon_dew.png</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>381</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -11221,7 +11343,7 @@
         <v>67</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K160" s="4" t="s">
         <v>98</v>
@@ -11230,22 +11352,22 @@
         <v>0</v>
       </c>
       <c r="M160" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_mist_peppermint_spray.png</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>382</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -11263,7 +11385,7 @@
         <v>68</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>98</v>
@@ -11272,22 +11394,22 @@
         <v>0</v>
       </c>
       <c r="M161" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_mist_spearmint_spritzer.png</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>383</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -11305,7 +11427,7 @@
         <v>69</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>98</v>
@@ -11314,22 +11436,22 @@
         <v>0</v>
       </c>
       <c r="M162" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_mist_watermelon_spring.png</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>384</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -11347,7 +11469,7 @@
         <v>70</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K163" s="4" t="s">
         <v>98</v>
@@ -11356,16 +11478,16 @@
         <v>0</v>
       </c>
       <c r="M163" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_mist_crisp_mint_waterfall.png</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>385</v>
@@ -11395,16 +11517,16 @@
         <v>0</v>
       </c>
       <c r="M164" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_white_bubblemint.png</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>386</v>
@@ -11434,16 +11556,16 @@
         <v>0</v>
       </c>
       <c r="M165" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_white_peppermint.png</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>387</v>
@@ -11473,20 +11595,20 @@
         <v>0</v>
       </c>
       <c r="M166" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>orbit_white_spearmint.png</v>
       </c>
       <c r="N166" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="4" t="str">
-        <f t="shared" ref="A167:A169" si="14">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(G167," ","_"),"_",SUBSTITUTE(H167," ","_"))),"'","")</f>
+        <f t="shared" ref="A167:A169" si="15">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(G167," ","_"),"_",SUBSTITUTE(H167," ","_"))),"'","")</f>
         <v>id_peppermint</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>239</v>
@@ -11498,19 +11620,19 @@
         <v>0</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>98</v>
@@ -11519,23 +11641,23 @@
         <v>0</v>
       </c>
       <c r="M167" s="4" t="str">
-        <f t="shared" ref="M167:M176" si="15">CONCATENATE(A167,".",N167)</f>
+        <f t="shared" ref="M167:M176" si="16">CONCATENATE(A167,".",N167)</f>
         <v>id_peppermint.png</v>
       </c>
       <c r="N167" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>id_spearmint</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D168" s="4">
         <v>1</v>
@@ -11544,19 +11666,19 @@
         <v>0</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K168" s="4" t="s">
         <v>98</v>
@@ -11565,45 +11687,45 @@
         <v>0</v>
       </c>
       <c r="M168" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>id_spearmint.png</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>id_berrymelon</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C169" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="H169" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D169" s="4">
-        <v>1</v>
-      </c>
-      <c r="E169" s="4">
-        <v>0</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>564</v>
-      </c>
       <c r="I169" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="J169" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="J169" s="6" t="s">
-        <v>565</v>
-      </c>
       <c r="K169" s="4" t="s">
         <v>98</v>
       </c>
@@ -11611,19 +11733,19 @@
         <v>0</v>
       </c>
       <c r="M169" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>id_berrymelon.png</v>
       </c>
       <c r="N169" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D170" s="4">
         <v>1</v>
@@ -11632,16 +11754,16 @@
         <v>0</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K170" s="4" t="s">
         <v>98</v>
@@ -11650,22 +11772,22 @@
         <v>0</v>
       </c>
       <c r="M170" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>up2u_daylight_mint_mintnight_mint.png</v>
       </c>
       <c r="N170" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D171" s="4">
         <v>1</v>
@@ -11674,16 +11796,16 @@
         <v>0</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K171" s="4" t="s">
         <v>98</v>
@@ -11692,22 +11814,22 @@
         <v>0</v>
       </c>
       <c r="M171" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>up2u_berry_watermelon_fresh_mint.png</v>
       </c>
       <c r="N171" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D172" s="4">
         <v>1</v>
@@ -11716,16 +11838,16 @@
         <v>0</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K172" s="4" t="s">
         <v>98</v>
@@ -11734,19 +11856,19 @@
         <v>0</v>
       </c>
       <c r="M172" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>up2u_striped_red_strawberry_starmint.png</v>
       </c>
       <c r="N172" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D173" s="4">
         <v>1</v>
@@ -11755,16 +11877,16 @@
         <v>0</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K173" s="4" t="s">
         <v>98</v>
@@ -11773,19 +11895,19 @@
         <v>0</v>
       </c>
       <c r="M173" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>up2u_superfruit_smasher_tropical_mixer.png</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D174" s="4">
         <v>1</v>
@@ -11794,16 +11916,16 @@
         <v>0</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>98</v>
@@ -11812,37 +11934,37 @@
         <v>0</v>
       </c>
       <c r="M174" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>up2u_energy_strike_chillax_mint.png</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="D175" s="4">
-        <v>1</v>
-      </c>
-      <c r="E175" s="4">
-        <v>0</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>609</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>98</v>
@@ -11851,22 +11973,22 @@
         <v>0</v>
       </c>
       <c r="M175" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>up2u_mandarin_strawberry_spearmint.png</v>
       </c>
       <c r="N175" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D176" s="4">
         <v>1</v>
@@ -11875,16 +11997,16 @@
         <v>0</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K176" s="4" t="s">
         <v>98</v>
@@ -11893,22 +12015,22 @@
         <v>0</v>
       </c>
       <c r="M176" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>up2u_sweet_mint_bubble_fresh.png</v>
       </c>
       <c r="N176" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D177" s="4">
         <v>1</v>
@@ -11920,18 +12042,18 @@
         <v>79</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D178" s="4">
         <v>1</v>
@@ -11940,21 +12062,21 @@
         <v>0</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D179" s="4">
         <v>1</v>
@@ -11963,22 +12085,22 @@
         <v>0</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B180" s="7" t="str">
-        <f t="shared" ref="B180:B187" si="16">CONCATENATE(G180," ",H180)</f>
+        <f t="shared" ref="B180:B187" si="17">CONCATENATE(G180," ",H180)</f>
         <v>ICE BREAKERS (R) Ice Cubes (R) Peppermint</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D180" s="4">
         <v>1</v>
@@ -11987,13 +12109,13 @@
         <v>0</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I180" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J180" s="18"/>
       <c r="K180" s="4" t="s">
@@ -12005,14 +12127,14 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B181" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Spearmint</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D181" s="4">
         <v>1</v>
@@ -12021,13 +12143,13 @@
         <v>0</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I181" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J181" s="18"/>
       <c r="K181" s="4" t="s">
@@ -12039,14 +12161,14 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B182" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Rasberry Sorbet</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D182" s="4">
         <v>1</v>
@@ -12055,13 +12177,13 @@
         <v>0</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I182" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K182" s="4" t="s">
         <v>98</v>
@@ -12072,14 +12194,14 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B183" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Kiwi Watermelon </v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D183" s="4">
         <v>1</v>
@@ -12088,13 +12210,13 @@
         <v>0</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H183" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I183" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K183" s="4" t="s">
         <v>98</v>
@@ -12105,14 +12227,14 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B184" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Strawberry Smoothie Gum</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D184" s="4">
         <v>1</v>
@@ -12121,13 +12243,13 @@
         <v>0</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H184" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I184" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K184" s="4" t="s">
         <v>98</v>
@@ -12138,14 +12260,14 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B185" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Wintergreen</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D185" s="4">
         <v>1</v>
@@ -12154,13 +12276,13 @@
         <v>0</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I185" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K185" s="4" t="s">
         <v>98</v>
@@ -12171,14 +12293,14 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B186" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Cool Lemon (R)</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D186" s="4">
         <v>1</v>
@@ -12187,13 +12309,13 @@
         <v>0</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I186" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K186" s="4" t="s">
         <v>98</v>
@@ -12204,14 +12326,14 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B187" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Bubble Breeze (R)</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D187" s="4">
         <v>1</v>
@@ -12220,13 +12342,13 @@
         <v>0</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I187" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K187" s="4" t="s">
         <v>98</v>
@@ -12237,15 +12359,15 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B188" s="7" t="str">
+        <f t="shared" ref="B188" si="18">CONCATENATE(G188," ",H188)</f>
+        <v>ICE BREAKERS (R) Ice Cubes (R) White Mango Kiwi Cooler</v>
+      </c>
+      <c r="C188" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="B188" s="7" t="str">
-        <f t="shared" ref="B188" si="17">CONCATENATE(G188," ",H188)</f>
-        <v>ICE BREAKERS (R) Ice Cubes (R) White Mango Kiwi Cooler</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>728</v>
-      </c>
       <c r="D188" s="4">
         <v>1</v>
       </c>
@@ -12253,23 +12375,23 @@
         <v>0</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B189" s="7" t="str">
+        <f t="shared" ref="B189:B195" si="19">CONCATENATE(G189," ",H189)</f>
+        <v>ICE BREAKERS (R) Ice Cubes (R) White Winter Green Splash</v>
+      </c>
+      <c r="C189" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="B189" s="7" t="str">
-        <f t="shared" ref="B189:B195" si="18">CONCATENATE(G189," ",H189)</f>
-        <v>ICE BREAKERS (R) Ice Cubes (R) White Winter Green Splash</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>735</v>
-      </c>
       <c r="D189" s="4">
         <v>1</v>
       </c>
@@ -12277,22 +12399,22 @@
         <v>0</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B190" s="7" t="str">
-        <f t="shared" ref="B190:B191" si="19">CONCATENATE(G190," ",H190)</f>
+        <f t="shared" ref="B190:B191" si="20">CONCATENATE(G190," ",H190)</f>
         <v>ICE BREAKERS (R) Stick Gum Coolmint</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D190" s="4">
         <v>1</v>
@@ -12301,22 +12423,22 @@
         <v>0</v>
       </c>
       <c r="G190" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="H190" s="4" t="s">
         <v>738</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B191" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>ICE BREAKERS (R) Stick Gum Wintergreen</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D191" s="4">
         <v>1</v>
@@ -12325,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>8</v>
@@ -12333,11 +12455,11 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="4" t="str">
-        <f t="shared" ref="A192:A195" si="20">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(G192," ","_"),"_",SUBSTITUTE(H192," ","_"))),"'","")</f>
+        <f t="shared" ref="A192:A195" si="21">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(G192," ","_"),"_",SUBSTITUTE(H192," ","_"))),"'","")</f>
         <v>_</v>
       </c>
       <c r="B192" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E192" s="4">
@@ -12346,114 +12468,114 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>_</v>
       </c>
       <c r="B193" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G193" s="9"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>_</v>
       </c>
       <c r="B194" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>_</v>
       </c>
       <c r="B195" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="4" t="str">
-        <f t="shared" ref="A196:A203" si="21">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(G196," ","_"),"_",SUBSTITUTE(H196," ","_"))),"'","")</f>
+        <f t="shared" ref="A196:A203" si="22">SUBSTITUTE(LOWER(CONCATENATE(SUBSTITUTE(G196," ","_"),"_",SUBSTITUTE(H196," ","_"))),"'","")</f>
         <v>_</v>
       </c>
       <c r="B196" s="7" t="str">
-        <f t="shared" ref="B196:B216" si="22">CONCATENATE(G196," ",H196)</f>
+        <f t="shared" ref="B196:B216" si="23">CONCATENATE(G196," ",H196)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>_</v>
       </c>
       <c r="B197" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G197" s="9"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>_</v>
       </c>
       <c r="B198" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>_</v>
       </c>
       <c r="B199" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>_</v>
       </c>
       <c r="B200" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>_</v>
       </c>
       <c r="B201" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G201" s="9"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>_</v>
       </c>
       <c r="B202" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>_</v>
       </c>
       <c r="B203" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12470,7 +12592,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -12495,17 +12617,17 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -12513,7 +12635,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="B216" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Trident Sweet Kicks Chocolate Mint</v>
       </c>
       <c r="D216" s="4">
@@ -12851,34 +12973,34 @@
     </row>
     <row r="254" spans="3:8">
       <c r="F254" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="255" spans="3:8">
       <c r="F255" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="256" spans="3:8">
       <c r="F256" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="F260" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -12945,7 +13067,7 @@
     </row>
     <row r="280" spans="2:2">
       <c r="B280" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="281" spans="2:2">
@@ -12955,7 +13077,7 @@
     </row>
     <row r="282" spans="2:2">
       <c r="B282" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="283" spans="2:2">
@@ -12965,12 +13087,12 @@
     </row>
     <row r="284" spans="2:2">
       <c r="B284" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="286" spans="2:2">
@@ -12983,47 +13105,47 @@
     </row>
     <row r="288" spans="2:2">
       <c r="B288" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="297" spans="2:2">
@@ -13031,32 +13153,32 @@
     </row>
     <row r="298" spans="2:2">
       <c r="B298" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="304" spans="2:2">
@@ -13064,7 +13186,7 @@
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="306" spans="2:2">
@@ -13074,7 +13196,7 @@
     </row>
     <row r="307" spans="2:2">
       <c r="B307" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="308" spans="2:2">
@@ -13082,17 +13204,17 @@
     </row>
     <row r="309" spans="2:2">
       <c r="B309" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -13899,25 +14021,25 @@
     <row r="130" spans="1:1">
       <c r="A130" t="str">
         <f>CONCATENATE('Working Data'!A131,"|",'Working Data'!B131,"|",'Working Data'!C131,"|",'Working Data'!D131,"|",'Working Data'!E131,"|",'Working Data'!F131,"|",'Working Data'!G131,"|",'Working Data'!H131,"|",'Working Data'!I131,"|",'Working Data'!J131,"|",'Working Data'!K131,"|",'Working Data'!L131,"|",'Working Data'!M131)</f>
-        <v>hubba_bubba_max_outrageous_original|Hubba Bubba Max Outrageous Original|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Outrageous Original|||United States|0|</v>
+        <v>hubba_bubba_max_outrageous_original|Hubba Bubba Max Outrageous Original|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Outrageous Original|||United States|0|hubba_bubba_max_outrageous_original.jpg</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="str">
         <f>CONCATENATE('Working Data'!A132,"|",'Working Data'!B132,"|",'Working Data'!C132,"|",'Working Data'!D132,"|",'Working Data'!E132,"|",'Working Data'!F132,"|",'Working Data'!G132,"|",'Working Data'!H132,"|",'Working Data'!I132,"|",'Working Data'!J132,"|",'Working Data'!K132,"|",'Working Data'!L132,"|",'Working Data'!M132)</f>
-        <v>hubba_bubba_max_strawberry_watermelon|Hubba Bubba Max Strawberry Watermelon|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Strawberry Watermelon|||United States|0|</v>
+        <v>hubba_bubba_max_strawberry_watermelon|Hubba Bubba Max Strawberry Watermelon|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Strawberry Watermelon|||United States|0|hubba_bubba_max_strawberry_watermelon.jpg</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="str">
         <f>CONCATENATE('Working Data'!A133,"|",'Working Data'!B133,"|",'Working Data'!C133,"|",'Working Data'!D133,"|",'Working Data'!E133,"|",'Working Data'!F133,"|",'Working Data'!G133,"|",'Working Data'!H133,"|",'Working Data'!I133,"|",'Working Data'!J133,"|",'Working Data'!K133,"|",'Working Data'!L133,"|",'Working Data'!M133)</f>
-        <v>hubba_bubba_max_sweet_&amp;_sassy_cherry|Hubba Bubba Max Sweet &amp; Sassy Cherry|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Sweet &amp; Sassy Cherry|||United States|0|</v>
+        <v>hubba_bubba_max_sweet_sassy_cherry|Hubba Bubba Max Sweet &amp; Sassy Cherry|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Sweet &amp; Sassy Cherry|||United States|0|hubba_bubba_max_sweet_sassy_cherry.jpg</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="str">
         <f>CONCATENATE('Working Data'!A134,"|",'Working Data'!B134,"|",'Working Data'!C134,"|",'Working Data'!D134,"|",'Working Data'!E134,"|",'Working Data'!F134,"|",'Working Data'!G134,"|",'Working Data'!H134,"|",'Working Data'!I134,"|",'Working Data'!J134,"|",'Working Data'!K134,"|",'Working Data'!L134,"|",'Working Data'!M134)</f>
-        <v>hubba_bubba_max_mystery_flavor|Hubba Bubba Max Mystery Flavor|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Mystery Flavor|||United States|0|</v>
+        <v>hubba_bubba_max_mystery_flavor|Hubba Bubba Max Mystery Flavor|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Mystery Flavor|||United States|0|hubba_bubba_max_mystery_flavor.jpg</v>
       </c>
     </row>
   </sheetData>
@@ -13970,10 +14092,10 @@
     </row>
     <row r="4" spans="1:2" ht="29" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" customHeight="1">
@@ -13981,7 +14103,7 @@
         <v>241</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" customHeight="1">
@@ -13996,7 +14118,7 @@
     </row>
     <row r="8" spans="1:2" ht="29" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" customHeight="1">
@@ -14117,7 +14239,7 @@
         <v>262</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29" customHeight="1">
@@ -14131,7 +14253,7 @@
         <v>264</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29" customHeight="1">
@@ -14139,7 +14261,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="29" customHeight="1">
@@ -14147,7 +14269,7 @@
         <v>266</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="29" customHeight="1">
@@ -14172,7 +14294,7 @@
         <v>270</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="29" customHeight="1">
@@ -14180,7 +14302,7 @@
         <v>271</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29" customHeight="1">
@@ -14258,7 +14380,7 @@
         <v>286</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="29" customHeight="1">
@@ -14286,7 +14408,7 @@
         <v>290</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="29" customHeight="1">
@@ -14300,7 +14422,7 @@
         <v>292</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="29" customHeight="1">
@@ -14326,7 +14448,7 @@
         <v>296</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="29" customHeight="1">
@@ -14346,7 +14468,7 @@
         <v>299</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="29" customHeight="1">
@@ -14360,7 +14482,7 @@
         <v>301</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="29" customHeight="1">
@@ -14368,7 +14490,7 @@
         <v>302</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="29" customHeight="1">
@@ -14479,7 +14601,7 @@
         <v>321</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="29" customHeight="1">
@@ -14493,7 +14615,7 @@
         <v>323</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="29" customHeight="1">
@@ -14515,7 +14637,7 @@
         <v>326</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="29" customHeight="1">
@@ -14523,7 +14645,7 @@
         <v>327</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="29" customHeight="1">
@@ -14553,7 +14675,7 @@
         <v>331</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="29" customHeight="1">
@@ -14561,7 +14683,7 @@
         <v>332</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="29" customHeight="1">
@@ -14581,7 +14703,7 @@
         <v>335</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="29" customHeight="1">
@@ -14605,7 +14727,7 @@
         <v>338</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="29" customHeight="1">
@@ -14613,7 +14735,7 @@
         <v>339</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="29" customHeight="1">
@@ -14629,7 +14751,7 @@
         <v>341</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="29" customHeight="1">
@@ -14637,7 +14759,7 @@
         <v>342</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="29" customHeight="1">
@@ -14645,7 +14767,7 @@
         <v>343</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="29" customHeight="1">
@@ -14653,7 +14775,7 @@
         <v>344</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="29" customHeight="1">
@@ -14661,7 +14783,7 @@
         <v>345</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="29" customHeight="1">
@@ -14675,7 +14797,7 @@
         <v>347</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="29" customHeight="1">
@@ -14768,7 +14890,7 @@
         <v>365</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="29" customHeight="1">
@@ -14794,7 +14916,7 @@
         <v>369</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="29" customHeight="1">
@@ -14802,7 +14924,7 @@
         <v>370</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="29" customHeight="1">
@@ -14810,7 +14932,7 @@
         <v>371</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="29" customHeight="1">
@@ -14818,7 +14940,7 @@
         <v>372</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="29" customHeight="1">
@@ -14832,7 +14954,7 @@
         <v>374</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="29" customHeight="1">
@@ -14846,7 +14968,7 @@
         <v>376</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="29" customHeight="1">
@@ -14854,7 +14976,7 @@
         <v>377</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="29" customHeight="1">
@@ -14912,7 +15034,7 @@
         <v>388</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="29" customHeight="1">
@@ -14920,12 +15042,12 @@
         <v>389</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="29" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>239</v>
@@ -14933,90 +15055,90 @@
     </row>
     <row r="156" spans="1:2" ht="29" customHeight="1">
       <c r="A156" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="29" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="29" customHeight="1">
       <c r="A158" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B158" s="14"/>
     </row>
     <row r="159" spans="1:2" ht="29" customHeight="1">
       <c r="A159" s="14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="29" customHeight="1">
       <c r="A160" s="14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="29" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B161" s="14"/>
     </row>
     <row r="162" spans="1:2" ht="29" customHeight="1">
       <c r="A162" s="14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B162" s="14"/>
     </row>
     <row r="163" spans="1:2" ht="29" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B163" s="14"/>
     </row>
     <row r="164" spans="1:2" ht="29" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="29" customHeight="1">
       <c r="A165" s="14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="29" customHeight="1">
       <c r="A166" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="29" customHeight="1">
       <c r="A167" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -15047,26 +15169,26 @@
   <sheetData>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" t="s">
         <v>736</v>
-      </c>
-      <c r="C6" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" t="s">
         <v>751</v>
-      </c>
-      <c r="C7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C8" t="s">
         <v>753</v>
-      </c>
-      <c r="C8" t="s">
-        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/db/gums seed data v6.xlsx
+++ b/db/gums seed data v6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="25400" windowHeight="19260" tabRatio="500"/>
+    <workbookView xWindow="3040" yWindow="0" windowWidth="27820" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Working Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="906">
   <si>
     <t>Cool Mint + Melon Fresco</t>
   </si>
@@ -3527,7 +3527,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3573,6 +3573,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="673">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4579,8 +4582,8 @@
   <dimension ref="A1:N311"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M177" sqref="M177"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6644,10 +6647,10 @@
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>dentyne_ice_peppermint.png</v>
+        <v>dentyne_ice_peppermint.jpg</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="9" customFormat="1">
@@ -6728,10 +6731,10 @@
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>dentyne_ice_arctic_chill.png</v>
+        <v>dentyne_ice_arctic_chill.jpg</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -6770,14 +6773,14 @@
       </c>
       <c r="M49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>dentyne_ice_mint_frost.png</v>
+        <v>dentyne_ice_mint_frost.jpg</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="9" t="s">
         <v>813</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -6812,14 +6815,14 @@
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" ref="M50" si="4">CONCATENATE(A50,".",N50)</f>
-        <v>dentyne_ice_mint_medley.png</v>
+        <v>dentyne_ice_mint_medley.jpg</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="9" t="s">
         <v>818</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -6854,14 +6857,14 @@
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" ref="M51" si="5">CONCATENATE(A51,".",N51)</f>
-        <v>dentyne_ice_shiver_mint.png</v>
+        <v>dentyne_ice_shiver_mint.jpg</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="9" t="s">
         <v>824</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6896,10 +6899,10 @@
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" ref="M52" si="6">CONCATENATE(A52,".",N52)</f>
-        <v>dentyne_ice_vanilla_chill.png</v>
+        <v>dentyne_ice_vanilla_chill.jpg</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7888,7 +7891,7 @@
         <v>156</v>
       </c>
       <c r="D76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4">
         <v>0</v>
@@ -7930,7 +7933,7 @@
         <v>566</v>
       </c>
       <c r="D77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -7972,7 +7975,7 @@
         <v>156</v>
       </c>
       <c r="D78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -8014,7 +8017,7 @@
         <v>156</v>
       </c>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -8056,7 +8059,7 @@
         <v>156</v>
       </c>
       <c r="D80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -8098,7 +8101,7 @@
         <v>156</v>
       </c>
       <c r="D81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -8140,7 +8143,7 @@
         <v>156</v>
       </c>
       <c r="D82" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -8182,7 +8185,7 @@
         <v>156</v>
       </c>
       <c r="D83" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -8840,10 +8843,10 @@
       </c>
       <c r="M98" s="4" t="str">
         <f t="shared" ref="M98" si="9">CONCATENATE(A98,".",N98)</f>
-        <v>extra_fruit_sensations_strawberry_banana.png</v>
+        <v>extra_fruit_sensations_strawberry_banana.jpg</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9515,10 +9518,10 @@
       </c>
       <c r="M114" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>5_gum_swerve.jpg</v>
+        <v>5_gum_swerve.jpeg</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>543</v>
+        <v>651</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -9683,10 +9686,10 @@
       </c>
       <c r="M118" s="4" t="str">
         <f t="shared" ref="M118" si="11">CONCATENATE(A118,".",N118)</f>
-        <v>5_gum_lush.png</v>
+        <v>5_gum_lush.jpg</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -9722,11 +9725,11 @@
         <v>0</v>
       </c>
       <c r="M119" s="4" t="str">
-        <f t="shared" ref="M119" si="12">CONCATENATE(A119,".",N119)</f>
-        <v>5_gum_zing.png</v>
+        <f t="shared" ref="M119:M121" si="12">CONCATENATE(A119,".",N119)</f>
+        <v>5_gum_zing.jpg</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -9760,8 +9763,9 @@
       <c r="L120" s="4">
         <v>0</v>
       </c>
-      <c r="M120" s="4" t="s">
-        <v>522</v>
+      <c r="M120" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>wrigleys_winterfresh.png</v>
       </c>
       <c r="N120" s="4" t="s">
         <v>542</v>
@@ -9798,8 +9802,9 @@
       <c r="L121" s="4">
         <v>0</v>
       </c>
-      <c r="M121" s="4" t="s">
-        <v>523</v>
+      <c r="M121" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>wrigleys_spearmint.jpg</v>
       </c>
       <c r="N121" s="4" t="s">
         <v>543</v>
@@ -11276,7 +11281,7 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="9" t="s">
         <v>514</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -11311,14 +11316,14 @@
       </c>
       <c r="M159" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>orbit_mist_raspberry_lemon_dew.png</v>
+        <v>orbit_mist_raspberry_lemon_dew.jpg</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="9" t="s">
         <v>515</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -11353,14 +11358,14 @@
       </c>
       <c r="M160" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>orbit_mist_peppermint_spray.png</v>
+        <v>orbit_mist_peppermint_spray.jpg</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="9" t="s">
         <v>516</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -11395,14 +11400,14 @@
       </c>
       <c r="M161" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>orbit_mist_spearmint_spritzer.png</v>
+        <v>orbit_mist_spearmint_spritzer.jpg</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="9" t="s">
         <v>517</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -11437,14 +11442,14 @@
       </c>
       <c r="M162" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>orbit_mist_watermelon_spring.png</v>
+        <v>orbit_mist_watermelon_spring.jpg</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="9" t="s">
         <v>518</v>
       </c>
       <c r="B163" s="7" t="s">
@@ -11479,10 +11484,10 @@
       </c>
       <c r="M163" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>orbit_mist_crisp_mint_waterfall.png</v>
+        <v>orbit_mist_crisp_mint_waterfall.jpg</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -12026,7 +12031,7 @@
       <c r="A177" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="21" t="s">
         <v>643</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -12043,13 +12048,19 @@
       </c>
       <c r="H177" s="4" t="s">
         <v>625</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L177" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="21" t="s">
         <v>644</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -12066,13 +12077,19 @@
       </c>
       <c r="H178" s="4" t="s">
         <v>628</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L178" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="21" t="s">
         <v>645</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -12089,13 +12106,19 @@
       </c>
       <c r="H179" s="4" t="s">
         <v>630</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L179" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B180" s="7" t="str">
+      <c r="B180" s="21" t="str">
         <f t="shared" ref="B180:B187" si="17">CONCATENATE(G180," ",H180)</f>
         <v>ICE BREAKERS (R) Ice Cubes (R) Peppermint</v>
       </c>
@@ -12129,7 +12152,7 @@
       <c r="A181" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="B181" s="7" t="str">
+      <c r="B181" s="21" t="str">
         <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Spearmint</v>
       </c>
@@ -12163,7 +12186,7 @@
       <c r="A182" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="B182" s="7" t="str">
+      <c r="B182" s="21" t="str">
         <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Rasberry Sorbet</v>
       </c>
@@ -12196,7 +12219,7 @@
       <c r="A183" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="B183" s="7" t="str">
+      <c r="B183" s="21" t="str">
         <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Kiwi Watermelon </v>
       </c>
@@ -12229,7 +12252,7 @@
       <c r="A184" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="B184" s="7" t="str">
+      <c r="B184" s="21" t="str">
         <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Strawberry Smoothie Gum</v>
       </c>
@@ -12262,7 +12285,7 @@
       <c r="A185" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="B185" s="7" t="str">
+      <c r="B185" s="21" t="str">
         <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Wintergreen</v>
       </c>
@@ -12295,7 +12318,7 @@
       <c r="A186" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="B186" s="7" t="str">
+      <c r="B186" s="21" t="str">
         <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Cool Lemon (R)</v>
       </c>
@@ -12328,7 +12351,7 @@
       <c r="A187" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="B187" s="7" t="str">
+      <c r="B187" s="21" t="str">
         <f t="shared" si="17"/>
         <v>ICE BREAKERS (R) Ice Cubes (R) Bubble Breeze (R)</v>
       </c>
@@ -12361,7 +12384,7 @@
       <c r="A188" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="B188" s="7" t="str">
+      <c r="B188" s="21" t="str">
         <f t="shared" ref="B188" si="18">CONCATENATE(G188," ",H188)</f>
         <v>ICE BREAKERS (R) Ice Cubes (R) White Mango Kiwi Cooler</v>
       </c>
@@ -12385,7 +12408,7 @@
       <c r="A189" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B189" s="7" t="str">
+      <c r="B189" s="21" t="str">
         <f t="shared" ref="B189:B195" si="19">CONCATENATE(G189," ",H189)</f>
         <v>ICE BREAKERS (R) Ice Cubes (R) White Winter Green Splash</v>
       </c>
@@ -12409,7 +12432,7 @@
       <c r="A190" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="B190" s="7" t="str">
+      <c r="B190" s="21" t="str">
         <f t="shared" ref="B190:B191" si="20">CONCATENATE(G190," ",H190)</f>
         <v>ICE BREAKERS (R) Stick Gum Coolmint</v>
       </c>
@@ -12433,7 +12456,7 @@
       <c r="A191" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B191" s="7" t="str">
+      <c r="B191" s="21" t="str">
         <f t="shared" si="20"/>
         <v>ICE BREAKERS (R) Stick Gum Wintergreen</v>
       </c>
@@ -13233,10 +13256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A133"/>
+  <dimension ref="A1:A210"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:A49"/>
+    <sheetView showRuler="0" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13511,7 +13534,7 @@
     <row r="45" spans="1:1">
       <c r="A45" t="str">
         <f>CONCATENATE('Working Data'!A46,"|",'Working Data'!B46,"|",'Working Data'!C46,"|",'Working Data'!D46,"|",'Working Data'!E46,"|",'Working Data'!F46,"|",'Working Data'!G46,"|",'Working Data'!H46,"|",'Working Data'!I46,"|",'Working Data'!J46,"|",'Working Data'!K46,"|",'Working Data'!L46,"|",'Working Data'!M46)</f>
-        <v>dentyne_ice_peppermint|Dentyne Ice Peppermint|012546312554|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Peppermint|Stay on top of your game with a flavor that's classic and timeless.||United States|0|dentyne_ice_peppermint.png</v>
+        <v>dentyne_ice_peppermint|Dentyne Ice Peppermint|012546312554|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Peppermint|Stay on top of your game with a flavor that's classic and timeless.||United States|0|dentyne_ice_peppermint.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -13523,31 +13546,31 @@
     <row r="47" spans="1:1">
       <c r="A47" t="str">
         <f>CONCATENATE('Working Data'!A48,"|",'Working Data'!B48,"|",'Working Data'!C48,"|",'Working Data'!D48,"|",'Working Data'!E48,"|",'Working Data'!F48,"|",'Working Data'!G48,"|",'Working Data'!H48,"|",'Working Data'!I48,"|",'Working Data'!J48,"|",'Working Data'!K48,"|",'Working Data'!L48,"|",'Working Data'!M48)</f>
-        <v>dentyne_ice_arctic_chill|Dentyne Ice Arctic Chill|012546312417 012546300599 012546310512|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Arctic Chill|Before introducing yourself, get intense freshness from a bold, icy flavor.||United States|0|dentyne_ice_arctic_chill.png</v>
+        <v>dentyne_ice_arctic_chill|Dentyne Ice Arctic Chill|012546312417 012546300599 012546310512|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Arctic Chill|Before introducing yourself, get intense freshness from a bold, icy flavor.||United States|0|dentyne_ice_arctic_chill.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="str">
         <f>CONCATENATE('Working Data'!A49,"|",'Working Data'!B49,"|",'Working Data'!C49,"|",'Working Data'!D49,"|",'Working Data'!E49,"|",'Working Data'!F49,"|",'Working Data'!G49,"|",'Working Data'!H49,"|",'Working Data'!I49,"|",'Working Data'!J49,"|",'Working Data'!K49,"|",'Working Data'!L49,"|",'Working Data'!M49)</f>
-        <v>dentyne_ice_mint_frost|Dentyne Ice Mint Frost|0|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Mint Frost|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_mint_frost.png</v>
+        <v>dentyne_ice_mint_frost|Dentyne Ice Mint Frost|0|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Mint Frost|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_mint_frost.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="str">
         <f>CONCATENATE('Working Data'!A50,"|",'Working Data'!B50,"|",'Working Data'!C50,"|",'Working Data'!D50,"|",'Working Data'!E50,"|",'Working Data'!F50,"|",'Working Data'!G50,"|",'Working Data'!H50,"|",'Working Data'!I50,"|",'Working Data'!J50,"|",'Working Data'!K50,"|",'Working Data'!L50,"|",'Working Data'!M50)</f>
-        <v>dentyne_ice_mint_medley|Dentyne Ice Mint Medley|012546312097|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Mint Medley|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_mint_medley.png</v>
+        <v>dentyne_ice_mint_medley|Dentyne Ice Mint Medley|012546312097|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Mint Medley|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_mint_medley.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="str">
         <f>CONCATENATE('Working Data'!A51,"|",'Working Data'!B51,"|",'Working Data'!C51,"|",'Working Data'!D51,"|",'Working Data'!E51,"|",'Working Data'!F51,"|",'Working Data'!G51,"|",'Working Data'!H51,"|",'Working Data'!I51,"|",'Working Data'!J51,"|",'Working Data'!K51,"|",'Working Data'!L51,"|",'Working Data'!M51)</f>
-        <v>dentyne_ice_shiver_mint|Dentyne Ice Shiver Mint|012546300094|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Shiver Mint|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_shiver_mint.png</v>
+        <v>dentyne_ice_shiver_mint|Dentyne Ice Shiver Mint|012546300094|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Shiver Mint|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_shiver_mint.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="str">
         <f>CONCATENATE('Working Data'!A52,"|",'Working Data'!B52,"|",'Working Data'!C52,"|",'Working Data'!D52,"|",'Working Data'!E52,"|",'Working Data'!F52,"|",'Working Data'!G52,"|",'Working Data'!H52,"|",'Working Data'!I52,"|",'Working Data'!J52,"|",'Working Data'!K52,"|",'Working Data'!L52,"|",'Working Data'!M52)</f>
-        <v>dentyne_ice_vanilla_chill|Dentyne Ice Vanilla Chill|012546302814|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Vanilla Chill|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_vanilla_chill.png</v>
+        <v>dentyne_ice_vanilla_chill|Dentyne Ice Vanilla Chill|012546302814|1|0|Mondelez International Kraft Foods Cadbury|Dentyne Ice|Vanilla Chill|Be ready for anything with a refreshing hint of cool, frosty mint.||United States|0|dentyne_ice_vanilla_chill.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -13691,49 +13714,49 @@
     <row r="75" spans="1:1">
       <c r="A75" t="str">
         <f>CONCATENATE('Working Data'!A76,"|",'Working Data'!B76,"|",'Working Data'!C76,"|",'Working Data'!D76,"|",'Working Data'!E76,"|",'Working Data'!F76,"|",'Working Data'!G76,"|",'Working Data'!H76,"|",'Working Data'!I76,"|",'Working Data'!J76,"|",'Working Data'!K76,"|",'Working Data'!L76,"|",'Working Data'!M76)</f>
-        <v>stride_nonstop_mint|Stride Nonstop Mint|0|0|0|Mondelez International Kraft Foods Cadbury|Stride|Nonstop Mint|?||United States|0|stride_nonstop_mint.jpg</v>
+        <v>stride_nonstop_mint|Stride Nonstop Mint|0|1|0|Mondelez International Kraft Foods Cadbury|Stride|Nonstop Mint|?||United States|0|stride_nonstop_mint.jpg</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="str">
         <f>CONCATENATE('Working Data'!A77,"|",'Working Data'!B77,"|",'Working Data'!C77,"|",'Working Data'!D77,"|",'Working Data'!E77,"|",'Working Data'!F77,"|",'Working Data'!G77,"|",'Working Data'!H77,"|",'Working Data'!I77,"|",'Working Data'!J77,"|",'Working Data'!K77,"|",'Working Data'!L77,"|",'Working Data'!M77)</f>
-        <v>stride_winterblue|Stride Winterblue|012546680028|0|0|Mondelez International Kraft Foods Cadbury|Stride|Winterblue|?||United States|0|stride_winterblue.jpg</v>
+        <v>stride_winterblue|Stride Winterblue|012546680028|1|0|Mondelez International Kraft Foods Cadbury|Stride|Winterblue|?||United States|0|stride_winterblue.jpg</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="str">
         <f>CONCATENATE('Working Data'!A78,"|",'Working Data'!B78,"|",'Working Data'!C78,"|",'Working Data'!D78,"|",'Working Data'!E78,"|",'Working Data'!F78,"|",'Working Data'!G78,"|",'Working Data'!H78,"|",'Working Data'!I78,"|",'Working Data'!J78,"|",'Working Data'!K78,"|",'Working Data'!L78,"|",'Working Data'!M78)</f>
-        <v>stride_spearmint|Stride Spearmint|0|0|0|Mondelez International Kraft Foods Cadbury|Stride|Spearmint|?||United States|0|stride_spearmint.jpg</v>
+        <v>stride_spearmint|Stride Spearmint|0|1|0|Mondelez International Kraft Foods Cadbury|Stride|Spearmint|?||United States|0|stride_spearmint.jpg</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="str">
         <f>CONCATENATE('Working Data'!A79,"|",'Working Data'!B79,"|",'Working Data'!C79,"|",'Working Data'!D79,"|",'Working Data'!E79,"|",'Working Data'!F79,"|",'Working Data'!G79,"|",'Working Data'!H79,"|",'Working Data'!I79,"|",'Working Data'!J79,"|",'Working Data'!K79,"|",'Working Data'!L79,"|",'Working Data'!M79)</f>
-        <v>stride_sweet_peppermint|Stride Sweet Peppermint|0|0|0|Mondelez International Kraft Foods Cadbury|Stride|Sweet Peppermint|?||United States|0|stride_sweet_peppermint.jpg</v>
+        <v>stride_sweet_peppermint|Stride Sweet Peppermint|0|1|0|Mondelez International Kraft Foods Cadbury|Stride|Sweet Peppermint|?||United States|0|stride_sweet_peppermint.jpg</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="str">
         <f>CONCATENATE('Working Data'!A80,"|",'Working Data'!B80,"|",'Working Data'!C80,"|",'Working Data'!D80,"|",'Working Data'!E80,"|",'Working Data'!F80,"|",'Working Data'!G80,"|",'Working Data'!H80,"|",'Working Data'!I80,"|",'Working Data'!J80,"|",'Working Data'!K80,"|",'Working Data'!L80,"|",'Working Data'!M80)</f>
-        <v>stride_sweet_berry|Stride Sweet Berry|0|0|0|Mondelez International Kraft Foods Cadbury|Stride|Sweet Berry|?||United States|0|stride_sweet_berry.jpg</v>
+        <v>stride_sweet_berry|Stride Sweet Berry|0|1|0|Mondelez International Kraft Foods Cadbury|Stride|Sweet Berry|?||United States|0|stride_sweet_berry.jpg</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="str">
         <f>CONCATENATE('Working Data'!A81,"|",'Working Data'!B81,"|",'Working Data'!C81,"|",'Working Data'!D81,"|",'Working Data'!E81,"|",'Working Data'!F81,"|",'Working Data'!G81,"|",'Working Data'!H81,"|",'Working Data'!I81,"|",'Working Data'!J81,"|",'Working Data'!K81,"|",'Working Data'!L81,"|",'Working Data'!M81)</f>
-        <v>stride_uber_bubble|Stride Uber Bubble|0|0|0|Mondelez International Kraft Foods Cadbury|Stride|Uber Bubble|?||United States|0|stride_uber_bubble.jpg</v>
+        <v>stride_uber_bubble|Stride Uber Bubble|0|1|0|Mondelez International Kraft Foods Cadbury|Stride|Uber Bubble|?||United States|0|stride_uber_bubble.jpg</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="str">
         <f>CONCATENATE('Working Data'!A82,"|",'Working Data'!B82,"|",'Working Data'!C82,"|",'Working Data'!D82,"|",'Working Data'!E82,"|",'Working Data'!F82,"|",'Working Data'!G82,"|",'Working Data'!H82,"|",'Working Data'!I82,"|",'Working Data'!J82,"|",'Working Data'!K82,"|",'Working Data'!L82,"|",'Working Data'!M82)</f>
-        <v>stride_sweet_cinnamon|Stride Sweet Cinnamon|0|0|0|Mondelez International Kraft Foods Cadbury|Stride|Sweet Cinnamon|?||United States|0|stride_sweet_cinnamon.jpg</v>
+        <v>stride_sweet_cinnamon|Stride Sweet Cinnamon|0|1|0|Mondelez International Kraft Foods Cadbury|Stride|Sweet Cinnamon|?||United States|0|stride_sweet_cinnamon.jpg</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="str">
         <f>CONCATENATE('Working Data'!A83,"|",'Working Data'!B83,"|",'Working Data'!C83,"|",'Working Data'!D83,"|",'Working Data'!E83,"|",'Working Data'!F83,"|",'Working Data'!G83,"|",'Working Data'!H83,"|",'Working Data'!I83,"|",'Working Data'!J83,"|",'Working Data'!K83,"|",'Working Data'!L83,"|",'Working Data'!M83)</f>
-        <v>stride_forever_fruit|Stride Forever Fruit|0|0|0|Mondelez International Kraft Foods Cadbury|Stride|Forever Fruit|?||United States|0|stride_forever_fruit.jpg</v>
+        <v>stride_forever_fruit|Stride Forever Fruit|0|1|0|Mondelez International Kraft Foods Cadbury|Stride|Forever Fruit|?||United States|0|stride_forever_fruit.jpg</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -13823,7 +13846,7 @@
     <row r="97" spans="1:1">
       <c r="A97" t="str">
         <f>CONCATENATE('Working Data'!A98,"|",'Working Data'!B98,"|",'Working Data'!C98,"|",'Working Data'!D98,"|",'Working Data'!E98,"|",'Working Data'!F98,"|",'Working Data'!G98,"|",'Working Data'!H98,"|",'Working Data'!I98,"|",'Working Data'!J98,"|",'Working Data'!K98,"|",'Working Data'!L98,"|",'Working Data'!M98)</f>
-        <v>extra_fruit_sensations_strawberry_banana|Extra Fruit Sensations Strawberry Banana|022000108425|1|0|Mars Inc Wrigley|Extra Fruit Sensations|Strawberry Banana|Launched in 1984, Extra was Wrigley's first sugar-free gum offering in the U.S. Extra gum is known for its incredible, long-lasting flavors. Extra gum is also available in a variety of distinctive flavors, specifically tailored to local tastes, in geographies including Australia, Canada, China, Germany, Hong Kong, New Zealand and Taiwan.||United States|0|extra_fruit_sensations_strawberry_banana.png</v>
+        <v>extra_fruit_sensations_strawberry_banana|Extra Fruit Sensations Strawberry Banana|022000108425|1|0|Mars Inc Wrigley|Extra Fruit Sensations|Strawberry Banana|Launched in 1984, Extra was Wrigley's first sugar-free gum offering in the U.S. Extra gum is known for its incredible, long-lasting flavors. Extra gum is also available in a variety of distinctive flavors, specifically tailored to local tastes, in geographies including Australia, Canada, China, Germany, Hong Kong, New Zealand and Taiwan.||United States|0|extra_fruit_sensations_strawberry_banana.jpg</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -13919,7 +13942,7 @@
     <row r="113" spans="1:1">
       <c r="A113" t="str">
         <f>CONCATENATE('Working Data'!A114,"|",'Working Data'!B114,"|",'Working Data'!C114,"|",'Working Data'!D114,"|",'Working Data'!E114,"|",'Working Data'!F114,"|",'Working Data'!G114,"|",'Working Data'!H114,"|",'Working Data'!I114,"|",'Working Data'!J114,"|",'Working Data'!K114,"|",'Working Data'!L114,"|",'Working Data'!M114)</f>
-        <v>5_gum_swerve|5 Gum Swerve|022000013170|1|0|Mars Inc Wrigley|5 Gum|Swerve (TM)|a tangy to sweet tropical||United States|0|5_gum_swerve.jpg</v>
+        <v>5_gum_swerve|5 Gum Swerve|022000013170|1|0|Mars Inc Wrigley|5 Gum|Swerve (TM)|a tangy to sweet tropical||United States|0|5_gum_swerve.jpeg</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -13943,25 +13966,25 @@
     <row r="117" spans="1:1">
       <c r="A117" t="str">
         <f>CONCATENATE('Working Data'!A118,"|",'Working Data'!B118,"|",'Working Data'!C118,"|",'Working Data'!D118,"|",'Working Data'!E118,"|",'Working Data'!F118,"|",'Working Data'!G118,"|",'Working Data'!H118,"|",'Working Data'!I118,"|",'Working Data'!J118,"|",'Working Data'!K118,"|",'Working Data'!L118,"|",'Working Data'!M118)</f>
-        <v>5_gum_lush|5 Gum Lush|022000107237|1|1|Mars Inc Wrigley|5 Gum|Lush|a tangy to sweet tropical||United States|0|5_gum_lush.png</v>
+        <v>5_gum_lush|5 Gum Lush|022000107237|1|1|Mars Inc Wrigley|5 Gum|Lush|a tangy to sweet tropical||United States|0|5_gum_lush.jpg</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="str">
         <f>CONCATENATE('Working Data'!A119,"|",'Working Data'!B119,"|",'Working Data'!C119,"|",'Working Data'!D119,"|",'Working Data'!E119,"|",'Working Data'!F119,"|",'Working Data'!G119,"|",'Working Data'!H119,"|",'Working Data'!I119,"|",'Working Data'!J119,"|",'Working Data'!K119,"|",'Working Data'!L119,"|",'Working Data'!M119)</f>
-        <v>5_gum_zing|5 Gum Zing|022000112446|1|1|Mars Inc Wrigley|5 Gum|Zing|||United States|0|5_gum_zing.png</v>
+        <v>5_gum_zing|5 Gum Zing|022000112446|1|1|Mars Inc Wrigley|5 Gum|Zing|||United States|0|5_gum_zing.jpg</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="str">
         <f>CONCATENATE('Working Data'!A120,"|",'Working Data'!B120,"|",'Working Data'!C120,"|",'Working Data'!D120,"|",'Working Data'!E120,"|",'Working Data'!F120,"|",'Working Data'!G120,"|",'Working Data'!H120,"|",'Working Data'!I120,"|",'Working Data'!J120,"|",'Working Data'!K120,"|",'Working Data'!L120,"|",'Working Data'!M120)</f>
-        <v>wrigleys_winterfresh|Wrigley's Winterfresh|02266901|1|0|Mars Inc Wrigley|Wrigley's|Winterfresh|||United States|0|wrigleys_winterfresh</v>
+        <v>wrigleys_winterfresh|Wrigley's Winterfresh|02266901|1|0|Mars Inc Wrigley|Wrigley's|Winterfresh|||United States|0|wrigleys_winterfresh.png</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="str">
         <f>CONCATENATE('Working Data'!A121,"|",'Working Data'!B121,"|",'Working Data'!C121,"|",'Working Data'!D121,"|",'Working Data'!E121,"|",'Working Data'!F121,"|",'Working Data'!G121,"|",'Working Data'!H121,"|",'Working Data'!I121,"|",'Working Data'!J121,"|",'Working Data'!K121,"|",'Working Data'!L121,"|",'Working Data'!M121)</f>
-        <v>wrigleys_spearmint|Wrigley's Spearmint|02266500|1|0|Mars Inc Wrigley|Wrigley's|Spearmint|||United States|0|wrigleys_spearmint</v>
+        <v>wrigleys_spearmint|Wrigley's Spearmint|02266500|1|0|Mars Inc Wrigley|Wrigley's|Spearmint|||United States|0|wrigleys_spearmint.jpg</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -14040,6 +14063,468 @@
       <c r="A133" t="str">
         <f>CONCATENATE('Working Data'!A134,"|",'Working Data'!B134,"|",'Working Data'!C134,"|",'Working Data'!D134,"|",'Working Data'!E134,"|",'Working Data'!F134,"|",'Working Data'!G134,"|",'Working Data'!H134,"|",'Working Data'!I134,"|",'Working Data'!J134,"|",'Working Data'!K134,"|",'Working Data'!L134,"|",'Working Data'!M134)</f>
         <v>hubba_bubba_max_mystery_flavor|Hubba Bubba Max Mystery Flavor|0|1|0|Mars Inc Wrigley|Hubba Bubba Max|Mystery Flavor|||United States|0|hubba_bubba_max_mystery_flavor.jpg</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="str">
+        <f>CONCATENATE('Working Data'!A135,"|",'Working Data'!B135,"|",'Working Data'!C135,"|",'Working Data'!D135,"|",'Working Data'!E135,"|",'Working Data'!F135,"|",'Working Data'!G135,"|",'Working Data'!H135,"|",'Working Data'!I135,"|",'Working Data'!J135,"|",'Working Data'!K135,"|",'Working Data'!L135,"|",'Working Data'!M135)</f>
+        <v>hubba_bubba_squeeze_pop_assorted_sour_flavors|Hubba Bubba Squeeze Pop Assorted Sour Flavors|0|1|0|Mars Inc Wrigley|Hubba Bubba Squeeze Pop|Assorted Sour Flavors|||United States|0|hubba_bubba_squeeze_pop_assorted_sour_flavors.jpg</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="str">
+        <f>CONCATENATE('Working Data'!A136,"|",'Working Data'!B136,"|",'Working Data'!C136,"|",'Working Data'!D136,"|",'Working Data'!E136,"|",'Working Data'!F136,"|",'Working Data'!G136,"|",'Working Data'!H136,"|",'Working Data'!I136,"|",'Working Data'!J136,"|",'Working Data'!K136,"|",'Working Data'!L136,"|",'Working Data'!M136)</f>
+        <v>hubba_bubba_bubble_tape_awesome_original|Hubba Bubba Bubble Tape Awesome Original|022110079806|1|0|Mars Inc Wrigley|Hubba Bubba Bubble Tape|Awesome Original|||United States|0|hubba_bubba_bubble_tape_awesome_original.jpg</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="str">
+        <f>CONCATENATE('Working Data'!A137,"|",'Working Data'!B137,"|",'Working Data'!C137,"|",'Working Data'!D137,"|",'Working Data'!E137,"|",'Working Data'!F137,"|",'Working Data'!G137,"|",'Working Data'!H137,"|",'Working Data'!I137,"|",'Working Data'!J137,"|",'Working Data'!K137,"|",'Working Data'!L137,"|",'Working Data'!M137)</f>
+        <v>hubba_bubba_bubble_tape_snappy_strawberry|Hubba Bubba Bubble Tape Snappy Strawberry|0|1|0|Mars Inc Wrigley|Hubba Bubba Bubble Tape|Snappy Strawberry|||United States|0|hubba_bubba_bubble_tape_snappy_strawberry.jpg</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="str">
+        <f>CONCATENATE('Working Data'!A138,"|",'Working Data'!B138,"|",'Working Data'!C138,"|",'Working Data'!D138,"|",'Working Data'!E138,"|",'Working Data'!F138,"|",'Working Data'!G138,"|",'Working Data'!H138,"|",'Working Data'!I138,"|",'Working Data'!J138,"|",'Working Data'!K138,"|",'Working Data'!L138,"|",'Working Data'!M138)</f>
+        <v>hubba_bubba_bubble_tape_sour_apple|Hubba Bubba Bubble Tape Sour Apple|0|1|0|Mars Inc Wrigley|Hubba Bubba Bubble Tape|Sour Apple|||United States|0|hubba_bubba_bubble_tape_sour_apple.jpg</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="str">
+        <f>CONCATENATE('Working Data'!A139,"|",'Working Data'!B139,"|",'Working Data'!C139,"|",'Working Data'!D139,"|",'Working Data'!E139,"|",'Working Data'!F139,"|",'Working Data'!G139,"|",'Working Data'!H139,"|",'Working Data'!I139,"|",'Working Data'!J139,"|",'Working Data'!K139,"|",'Working Data'!L139,"|",'Working Data'!M139)</f>
+        <v>hubba_bubba_bubble_tape_triple_treat|Hubba Bubba Bubble Tape Triple Treat|0|1|0|Mars Inc Wrigley|Hubba Bubba Bubble Tape|Triple Treat|||United States|0|hubba_bubba_bubble_tape_triple_treat.jpg</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="str">
+        <f>CONCATENATE('Working Data'!A140,"|",'Working Data'!B140,"|",'Working Data'!C140,"|",'Working Data'!D140,"|",'Working Data'!E140,"|",'Working Data'!F140,"|",'Working Data'!G140,"|",'Working Data'!H140,"|",'Working Data'!I140,"|",'Working Data'!J140,"|",'Working Data'!K140,"|",'Working Data'!L140,"|",'Working Data'!M140)</f>
+        <v>hubba_bubba_bubble_tape_tangy_tropical|Hubba Bubba Bubble Tape Tangy Tropical|0|1|0|Mars Inc Wrigley|Hubba Bubba Bubble Tape|Tangy Tropical|||United States|0|hubba_bubba_bubble_tape_tangy_tropical.jpg</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="str">
+        <f>CONCATENATE('Working Data'!A141,"|",'Working Data'!B141,"|",'Working Data'!C141,"|",'Working Data'!D141,"|",'Working Data'!E141,"|",'Working Data'!F141,"|",'Working Data'!G141,"|",'Working Data'!H141,"|",'Working Data'!I141,"|",'Working Data'!J141,"|",'Working Data'!K141,"|",'Working Data'!L141,"|",'Working Data'!M141)</f>
+        <v>hubba_bubba_bubble_tape_mystery_flavor|Hubba Bubba Bubble Tape Mystery Flavor|0|1|0|Mars Inc Wrigley|Hubba Bubba Bubble Tape|Mystery Flavor|||United States|0|hubba_bubba_bubble_tape_mystery_flavor.jpeg</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="str">
+        <f>CONCATENATE('Working Data'!A142,"|",'Working Data'!B142,"|",'Working Data'!C142,"|",'Working Data'!D142,"|",'Working Data'!E142,"|",'Working Data'!F142,"|",'Working Data'!G142,"|",'Working Data'!H142,"|",'Working Data'!I142,"|",'Working Data'!J142,"|",'Working Data'!K142,"|",'Working Data'!L142,"|",'Working Data'!M142)</f>
+        <v>hubba_bubba_ouch_bubble_gum|Hubba Bubba OUCH! Bubble Gum|0|1|0|Mars Inc Wrigley|Hubba Bubba OUCH!|Bubble Gum|||United States|0|hubba_bubba_ouch_bubble_gum.jpg</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="str">
+        <f>CONCATENATE('Working Data'!A143,"|",'Working Data'!B143,"|",'Working Data'!C143,"|",'Working Data'!D143,"|",'Working Data'!E143,"|",'Working Data'!F143,"|",'Working Data'!G143,"|",'Working Data'!H143,"|",'Working Data'!I143,"|",'Working Data'!J143,"|",'Working Data'!K143,"|",'Working Data'!L143,"|",'Working Data'!M143)</f>
+        <v>wrigleys_juicy_fruit_juicy_secret|Wrigley's Juicy Fruit Juicy Secret|0|1|0|Mars Inc Wrigley|Wrigley's Juicy Fruit|Juicy Secret|||United States|0|wrigleys_juicy_fruit_juicy_secret.jpg</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="str">
+        <f>CONCATENATE('Working Data'!A144,"|",'Working Data'!B144,"|",'Working Data'!C144,"|",'Working Data'!D144,"|",'Working Data'!E144,"|",'Working Data'!F144,"|",'Working Data'!G144,"|",'Working Data'!H144,"|",'Working Data'!I144,"|",'Working Data'!J144,"|",'Working Data'!K144,"|",'Working Data'!L144,"|",'Working Data'!M144)</f>
+        <v>wrigleys_juicy_fruit_original|Wrigley's Juicy Fruit Original|02266707|1|0|Mars Inc Wrigley|Wrigley's Juicy Fruit|Original|||United States|0|wrigleys_juicy_fruit_original.jpg</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="str">
+        <f>CONCATENATE('Working Data'!A145,"|",'Working Data'!B145,"|",'Working Data'!C145,"|",'Working Data'!D145,"|",'Working Data'!E145,"|",'Working Data'!F145,"|",'Working Data'!G145,"|",'Working Data'!H145,"|",'Working Data'!I145,"|",'Working Data'!J145,"|",'Working Data'!K145,"|",'Working Data'!L145,"|",'Working Data'!M145)</f>
+        <v>wrigleys_juicy_fruit_sweet_fruit|Wrigley's Juicy Fruit Sweet Fruit|0|1|0|Mars Inc Wrigley|Wrigley's Juicy Fruit|Sweet Fruit|||United States|0|wrigleys_juicy_fruit_sweet_fruit.jpg</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="str">
+        <f>CONCATENATE('Working Data'!A146,"|",'Working Data'!B146,"|",'Working Data'!C146,"|",'Working Data'!D146,"|",'Working Data'!E146,"|",'Working Data'!F146,"|",'Working Data'!G146,"|",'Working Data'!H146,"|",'Working Data'!I146,"|",'Working Data'!J146,"|",'Working Data'!K146,"|",'Working Data'!L146,"|",'Working Data'!M146)</f>
+        <v>wrigleys_juicy_fruit_sweet_berry|Wrigley's Juicy Fruit Sweet Berry|0|1|0|Mars Inc Wrigley|Wrigley's Juicy Fruit|Sweet Berry|||United States|0|wrigleys_juicy_fruit_sweet_berry.jpg</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="str">
+        <f>CONCATENATE('Working Data'!A147,"|",'Working Data'!B147,"|",'Working Data'!C147,"|",'Working Data'!D147,"|",'Working Data'!E147,"|",'Working Data'!F147,"|",'Working Data'!G147,"|",'Working Data'!H147,"|",'Working Data'!I147,"|",'Working Data'!J147,"|",'Working Data'!K147,"|",'Working Data'!L147,"|",'Working Data'!M147)</f>
+        <v>wrigleys_juicy_fruit_groovy_fruity|Wrigley's Juicy Fruit Groovy Fruity|0|1|0|Mars Inc Wrigley|Wrigley's Juicy Fruit|Groovy Fruity|||United States|0|wrigleys_juicy_fruit_groovy_fruity.jpeg</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="str">
+        <f>CONCATENATE('Working Data'!A148,"|",'Working Data'!B148,"|",'Working Data'!C148,"|",'Working Data'!D148,"|",'Working Data'!E148,"|",'Working Data'!F148,"|",'Working Data'!G148,"|",'Working Data'!H148,"|",'Working Data'!I148,"|",'Working Data'!J148,"|",'Working Data'!K148,"|",'Working Data'!L148,"|",'Working Data'!M148)</f>
+        <v>orbit_peppermint|Orbit Peppermint|02248604|1|0|Mars Inc Wrigley|Orbit|Peppermint|||United States|0|orbit_peppermint.png</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="str">
+        <f>CONCATENATE('Working Data'!A149,"|",'Working Data'!B149,"|",'Working Data'!C149,"|",'Working Data'!D149,"|",'Working Data'!E149,"|",'Working Data'!F149,"|",'Working Data'!G149,"|",'Working Data'!H149,"|",'Working Data'!I149,"|",'Working Data'!J149,"|",'Working Data'!K149,"|",'Working Data'!L149,"|",'Working Data'!M149)</f>
+        <v>orbit_spearmint|Orbit Spearmint|022000013958 0224840|1|0|Mars Inc Wrigley|Orbit|Spearmint|||United States|0|orbit_spearmint.png</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="str">
+        <f>CONCATENATE('Working Data'!A150,"|",'Working Data'!B150,"|",'Working Data'!C150,"|",'Working Data'!D150,"|",'Working Data'!E150,"|",'Working Data'!F150,"|",'Working Data'!G150,"|",'Working Data'!H150,"|",'Working Data'!I150,"|",'Working Data'!J150,"|",'Working Data'!K150,"|",'Working Data'!L150,"|",'Working Data'!M150)</f>
+        <v>orbit_bubblemint|Orbit Bubblemint|02248905|1|0|Mars Inc Wrigley|Orbit|Bubblemint|||United States|0|orbit_bubblemint.png</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="str">
+        <f>CONCATENATE('Working Data'!A151,"|",'Working Data'!B151,"|",'Working Data'!C151,"|",'Working Data'!D151,"|",'Working Data'!E151,"|",'Working Data'!F151,"|",'Working Data'!G151,"|",'Working Data'!H151,"|",'Working Data'!I151,"|",'Working Data'!J151,"|",'Working Data'!K151,"|",'Working Data'!L151,"|",'Working Data'!M151)</f>
+        <v>orbit_wintermint|Orbit Wintermint|02248808|1|0|Mars Inc Wrigley|Orbit|Wintermint|||United States|0|orbit_wintermint.png</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="str">
+        <f>CONCATENATE('Working Data'!A152,"|",'Working Data'!B152,"|",'Working Data'!C152,"|",'Working Data'!D152,"|",'Working Data'!E152,"|",'Working Data'!F152,"|",'Working Data'!G152,"|",'Working Data'!H152,"|",'Working Data'!I152,"|",'Working Data'!J152,"|",'Working Data'!K152,"|",'Working Data'!L152,"|",'Working Data'!M152)</f>
+        <v>orbit_cinnamint|Orbit Cinnamint|02248507|1|0|Mars Inc Wrigley|Orbit|Cinnamint|||United States|0|orbit_cinnamint.png</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="str">
+        <f>CONCATENATE('Working Data'!A153,"|",'Working Data'!B153,"|",'Working Data'!C153,"|",'Working Data'!D153,"|",'Working Data'!E153,"|",'Working Data'!F153,"|",'Working Data'!G153,"|",'Working Data'!H153,"|",'Working Data'!I153,"|",'Working Data'!J153,"|",'Working Data'!K153,"|",'Working Data'!L153,"|",'Working Data'!M153)</f>
+        <v>orbit_sweetmint|Orbit Sweetmint|02248303|1|0|Mars Inc Wrigley|Orbit|Sweetmint|||United States|0|orbit_sweetmint.png</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="str">
+        <f>CONCATENATE('Working Data'!A154,"|",'Working Data'!B154,"|",'Working Data'!C154,"|",'Working Data'!D154,"|",'Working Data'!E154,"|",'Working Data'!F154,"|",'Working Data'!G154,"|",'Working Data'!H154,"|",'Working Data'!I154,"|",'Working Data'!J154,"|",'Working Data'!K154,"|",'Working Data'!L154,"|",'Working Data'!M154)</f>
+        <v>orbit_maui_melon_mint|Orbit Maui Melon Mint|0|1|0|Mars Inc Wrigley|Orbit|Maui Melon Mint|||United States|0|orbit_maui_melon_mint.png</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="str">
+        <f>CONCATENATE('Working Data'!A155,"|",'Working Data'!B155,"|",'Working Data'!C155,"|",'Working Data'!D155,"|",'Working Data'!E155,"|",'Working Data'!F155,"|",'Working Data'!G155,"|",'Working Data'!H155,"|",'Working Data'!I155,"|",'Working Data'!J155,"|",'Working Data'!K155,"|",'Working Data'!L155,"|",'Working Data'!M155)</f>
+        <v>orbit_wildberry_remix|Orbit Wildberry Remix|022000013347|1|0|Mars Inc Wrigley|Orbit|Wildberry Remix|||United States|0|orbit_wildberry_remix.png</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="str">
+        <f>CONCATENATE('Working Data'!A156,"|",'Working Data'!B156,"|",'Working Data'!C156,"|",'Working Data'!D156,"|",'Working Data'!E156,"|",'Working Data'!F156,"|",'Working Data'!G156,"|",'Working Data'!H156,"|",'Working Data'!I156,"|",'Working Data'!J156,"|",'Working Data'!K156,"|",'Working Data'!L156,"|",'Working Data'!M156)</f>
+        <v>orbit_melon_remix|Orbit Melon Remix|022000013743|1|0|Mars Inc Wrigley|Orbit|Melon Remix|||United States|0|orbit_melon_remix.png</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="str">
+        <f>CONCATENATE('Working Data'!A157,"|",'Working Data'!B157,"|",'Working Data'!C157,"|",'Working Data'!D157,"|",'Working Data'!E157,"|",'Working Data'!F157,"|",'Working Data'!G157,"|",'Working Data'!H157,"|",'Working Data'!I157,"|",'Working Data'!J157,"|",'Working Data'!K157,"|",'Working Data'!L157,"|",'Working Data'!M157)</f>
+        <v>orbit_tropical_remix|Orbit Tropical Remix|022000011794|1|0|Mars Inc Wrigley|Orbit|Tropical Remix|||United States|0|orbit_tropical_remix.png</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="str">
+        <f>CONCATENATE('Working Data'!A158,"|",'Working Data'!B158,"|",'Working Data'!C158,"|",'Working Data'!D158,"|",'Working Data'!E158,"|",'Working Data'!F158,"|",'Working Data'!G158,"|",'Working Data'!H158,"|",'Working Data'!I158,"|",'Working Data'!J158,"|",'Working Data'!K158,"|",'Working Data'!L158,"|",'Working Data'!M158)</f>
+        <v>orbit_strawberry_remix|Orbit Strawberry Remix|0|1|0|Mars Inc Wrigley|Orbit|Strawberry Remix|||United States|0|orbit_strawberry_remix.png</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="str">
+        <f>CONCATENATE('Working Data'!A159,"|",'Working Data'!B159,"|",'Working Data'!C159,"|",'Working Data'!D159,"|",'Working Data'!E159,"|",'Working Data'!F159,"|",'Working Data'!G159,"|",'Working Data'!H159,"|",'Working Data'!I159,"|",'Working Data'!J159,"|",'Working Data'!K159,"|",'Working Data'!L159,"|",'Working Data'!M159)</f>
+        <v>orbit_mist_raspberry_lemon_dew|Orbit Mist Raspberry Lemon Dew|022000113795|1|0|Mars Inc Wrigley|Orbit Mist|Raspberry Lemon Dew|The smooth, refreshing flavor of sugar-free Orbit gum leaves your mouth with a "just brushed clean feeling".||United States|0|orbit_mist_raspberry_lemon_dew.jpg</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="str">
+        <f>CONCATENATE('Working Data'!A160,"|",'Working Data'!B160,"|",'Working Data'!C160,"|",'Working Data'!D160,"|",'Working Data'!E160,"|",'Working Data'!F160,"|",'Working Data'!G160,"|",'Working Data'!H160,"|",'Working Data'!I160,"|",'Working Data'!J160,"|",'Working Data'!K160,"|",'Working Data'!L160,"|",'Working Data'!M160)</f>
+        <v>orbit_mist_peppermint_spray|Orbit Mist Peppermint Spray|022000110435|1|0|Mars Inc Wrigley|Orbit Mist|Peppermint Spray|The smooth, refreshing flavor of sugar-free Orbit gum leaves your mouth with a "just brushed clean feeling".||United States|0|orbit_mist_peppermint_spray.jpg</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="str">
+        <f>CONCATENATE('Working Data'!A161,"|",'Working Data'!B161,"|",'Working Data'!C161,"|",'Working Data'!D161,"|",'Working Data'!E161,"|",'Working Data'!F161,"|",'Working Data'!G161,"|",'Working Data'!H161,"|",'Working Data'!I161,"|",'Working Data'!J161,"|",'Working Data'!K161,"|",'Working Data'!L161,"|",'Working Data'!M161)</f>
+        <v>orbit_mist_spearmint_spritzer|Orbit Mist Spearmint Spritzer|022000115577|1|0|Mars Inc Wrigley|Orbit Mist|Spearmint Spritzer|The smooth, refreshing flavor of sugar-free Orbit gum leaves your mouth with a "just brushed clean feeling".||United States|0|orbit_mist_spearmint_spritzer.jpg</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="str">
+        <f>CONCATENATE('Working Data'!A162,"|",'Working Data'!B162,"|",'Working Data'!C162,"|",'Working Data'!D162,"|",'Working Data'!E162,"|",'Working Data'!F162,"|",'Working Data'!G162,"|",'Working Data'!H162,"|",'Working Data'!I162,"|",'Working Data'!J162,"|",'Working Data'!K162,"|",'Working Data'!L162,"|",'Working Data'!M162)</f>
+        <v>orbit_mist_watermelon_spring|Orbit Mist Watermelon Spring|022000110398|1|0|Mars Inc Wrigley|Orbit Mist|Watermelon Spring|The smooth, refreshing flavor of sugar-free Orbit gum leaves your mouth with a "just brushed clean feeling".||United States|0|orbit_mist_watermelon_spring.jpg</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="str">
+        <f>CONCATENATE('Working Data'!A163,"|",'Working Data'!B163,"|",'Working Data'!C163,"|",'Working Data'!D163,"|",'Working Data'!E163,"|",'Working Data'!F163,"|",'Working Data'!G163,"|",'Working Data'!H163,"|",'Working Data'!I163,"|",'Working Data'!J163,"|",'Working Data'!K163,"|",'Working Data'!L163,"|",'Working Data'!M163)</f>
+        <v>orbit_mist_crisp_mint_waterfall|Orbit Mist Crisp Mint Waterfall|022000119704|1|0|Mars Inc Wrigley|Orbit Mist|Crisp Mint Waterfall|The smooth, refreshing flavor of sugar-free Orbit gum leaves your mouth with a "just brushed clean feeling".||United States|0|orbit_mist_crisp_mint_waterfall.jpg</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="str">
+        <f>CONCATENATE('Working Data'!A164,"|",'Working Data'!B164,"|",'Working Data'!C164,"|",'Working Data'!D164,"|",'Working Data'!E164,"|",'Working Data'!F164,"|",'Working Data'!G164,"|",'Working Data'!H164,"|",'Working Data'!I164,"|",'Working Data'!J164,"|",'Working Data'!K164,"|",'Working Data'!L164,"|",'Working Data'!M164)</f>
+        <v>orbit_white_bubblemint|Orbit White Bubblemint|0|1|0|Mars Inc Wrigley|Orbit White|Bubblemint|||United States|0|orbit_white_bubblemint.png</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="str">
+        <f>CONCATENATE('Working Data'!A165,"|",'Working Data'!B165,"|",'Working Data'!C165,"|",'Working Data'!D165,"|",'Working Data'!E165,"|",'Working Data'!F165,"|",'Working Data'!G165,"|",'Working Data'!H165,"|",'Working Data'!I165,"|",'Working Data'!J165,"|",'Working Data'!K165,"|",'Working Data'!L165,"|",'Working Data'!M165)</f>
+        <v>orbit_white_peppermint|Orbit White Peppermint|0|1|0|Mars Inc Wrigley|Orbit White|Peppermint|||United States|0|orbit_white_peppermint.png</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="str">
+        <f>CONCATENATE('Working Data'!A166,"|",'Working Data'!B166,"|",'Working Data'!C166,"|",'Working Data'!D166,"|",'Working Data'!E166,"|",'Working Data'!F166,"|",'Working Data'!G166,"|",'Working Data'!H166,"|",'Working Data'!I166,"|",'Working Data'!J166,"|",'Working Data'!K166,"|",'Working Data'!L166,"|",'Working Data'!M166)</f>
+        <v>orbit_white_spearmint|Orbit White Spearmint|0|1|0|Mars Inc Wrigley|Orbit White|Spearmint|||United States|0|orbit_white_spearmint.png</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="str">
+        <f>CONCATENATE('Working Data'!A167,"|",'Working Data'!B167,"|",'Working Data'!C167,"|",'Working Data'!D167,"|",'Working Data'!E167,"|",'Working Data'!F167,"|",'Working Data'!G167,"|",'Working Data'!H167,"|",'Working Data'!I167,"|",'Working Data'!J167,"|",'Working Data'!K167,"|",'Working Data'!L167,"|",'Working Data'!M167)</f>
+        <v>id_peppermint|iD Peppermint|012546685115|1|0|Mondelez International Kraft Foods Cadbury|iD|Peppermint|iD Gum puts a delicious twist on the flavors you love, like Peppermint, BerryMelon and Spearmint. Each pack features unique artwork created by emerging artists, making it kinda a pack of gum and kinda a breathtakingly moving masterpiece. Not to mention a magnetic closure that helps keep your gum secure in the pack. And that's just the beginning.|Kinda tastes like peppermint and kinda like a hint of something else. iD Gum. Kinda more than gum. Kinda amazing.|United States|0|id_peppermint.png</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="str">
+        <f>CONCATENATE('Working Data'!A168,"|",'Working Data'!B168,"|",'Working Data'!C168,"|",'Working Data'!D168,"|",'Working Data'!E168,"|",'Working Data'!F168,"|",'Working Data'!G168,"|",'Working Data'!H168,"|",'Working Data'!I168,"|",'Working Data'!J168,"|",'Working Data'!K168,"|",'Working Data'!L168,"|",'Working Data'!M168)</f>
+        <v>id_spearmint|iD Spearmint|012546685061|1|0|Mondelez International Kraft Foods Cadbury|iD|Spearmint|iD Gum puts a delicious twist on the flavors you love, like Peppermint, BerryMelon and Spearmint. Each pack features unique artwork created by emerging artists, making it kinda a pack of gum and kinda a breathtakingly moving masterpiece. Not to mention a magnetic closure that helps keep your gum secure in the pack. And that's just the beginning.|Kinda tastes like spearmint and kinda has a little more to it. iD Gum. Kinda more than gum. Kinda amazing.|United States|0|id_spearmint.png</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="str">
+        <f>CONCATENATE('Working Data'!A169,"|",'Working Data'!B169,"|",'Working Data'!C169,"|",'Working Data'!D169,"|",'Working Data'!E169,"|",'Working Data'!F169,"|",'Working Data'!G169,"|",'Working Data'!H169,"|",'Working Data'!I169,"|",'Working Data'!J169,"|",'Working Data'!K169,"|",'Working Data'!L169,"|",'Working Data'!M169)</f>
+        <v>id_berrymelon|iD BerryMelon|012546685016|1|0|Mondelez International Kraft Foods Cadbury|iD|BerryMelon|iD Gum puts a delicious twist on the flavors you love, like Peppermint, BerryMelon and Spearmint. Each pack features unique artwork created by emerging artists, making it kinda a pack of gum and kinda a breathtakingly moving masterpiece. Not to mention a magnetic closure that helps keep your gum secure in the pack. And that's just the beginning.|Kinda tastes like berry and kinda tastes like watermelon. iD Gum. Kinda more than gum. Kinda amazing.|United States|0|id_berrymelon.png</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="str">
+        <f>CONCATENATE('Working Data'!A170,"|",'Working Data'!B170,"|",'Working Data'!C170,"|",'Working Data'!D170,"|",'Working Data'!E170,"|",'Working Data'!F170,"|",'Working Data'!G170,"|",'Working Data'!H170,"|",'Working Data'!I170,"|",'Working Data'!J170,"|",'Working Data'!K170,"|",'Working Data'!L170,"|",'Working Data'!M170)</f>
+        <v>up2u_daylight_mint_mintnight_mint|UP2U Daylight Mint / Mintnight Mint||1|0|Perfetti Van Melle Mentos|UP2U|Daylight Mint / Mintnight Mint|Two juicy mint flavors in one pack. One for day. One for night.||United States|0|up2u_daylight_mint_mintnight_mint.png</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="str">
+        <f>CONCATENATE('Working Data'!A171,"|",'Working Data'!B171,"|",'Working Data'!C171,"|",'Working Data'!D171,"|",'Working Data'!E171,"|",'Working Data'!F171,"|",'Working Data'!G171,"|",'Working Data'!H171,"|",'Working Data'!I171,"|",'Working Data'!J171,"|",'Working Data'!K171,"|",'Working Data'!L171,"|",'Working Data'!M171)</f>
+        <v>up2u_berry_watermelon_fresh_mint|UP2U Berry Watermelon / Fresh Mint|073390014001|1|0|Perfetti Van Melle Mentos|UP2U|Berry Watermelon / Fresh Mint|We mashed two frutis together and paired them with a crisp mint. They like each other.||United States|0|up2u_berry_watermelon_fresh_mint.png</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="str">
+        <f>CONCATENATE('Working Data'!A172,"|",'Working Data'!B172,"|",'Working Data'!C172,"|",'Working Data'!D172,"|",'Working Data'!E172,"|",'Working Data'!F172,"|",'Working Data'!G172,"|",'Working Data'!H172,"|",'Working Data'!I172,"|",'Working Data'!J172,"|",'Working Data'!K172,"|",'Working Data'!L172,"|",'Working Data'!M172)</f>
+        <v>up2u_striped_red_strawberry_starmint|UP2U Striped Red Strawberry / Starmint|073390013998|1|0|Perfetti Van Melle Mentos|UP2U|Striped Red Strawberry / Starmint|Big, gorgeous strawberry deliciousness as American as apple pie, except for the apple part. Paired with the crisp minty'ness of outer space.||United States|0|up2u_striped_red_strawberry_starmint.png</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="str">
+        <f>CONCATENATE('Working Data'!A173,"|",'Working Data'!B173,"|",'Working Data'!C173,"|",'Working Data'!D173,"|",'Working Data'!E173,"|",'Working Data'!F173,"|",'Working Data'!G173,"|",'Working Data'!H173,"|",'Working Data'!I173,"|",'Working Data'!J173,"|",'Working Data'!K173,"|",'Working Data'!L173,"|",'Working Data'!M173)</f>
+        <v>up2u_superfruit_smasher_tropical_mixer|UP2U Superfruit Smasher / Tropical Mixer||1|0|Perfetti Van Melle Mentos|UP2U|Superfruit Smasher / Tropical Mixer|Superfruit is a mashed-up blend of mouth-watering goodness.  On the other side, more fruit goodness, this time of the tropical variety.||United States|0|up2u_superfruit_smasher_tropical_mixer.png</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="str">
+        <f>CONCATENATE('Working Data'!A174,"|",'Working Data'!B174,"|",'Working Data'!C174,"|",'Working Data'!D174,"|",'Working Data'!E174,"|",'Working Data'!F174,"|",'Working Data'!G174,"|",'Working Data'!H174,"|",'Working Data'!I174,"|",'Working Data'!J174,"|",'Working Data'!K174,"|",'Working Data'!L174,"|",'Working Data'!M174)</f>
+        <v>up2u_energy_strike_chillax_mint|UP2U Energy Strike / Chillax Mint||1|0|Perfetti Van Melle Mentos|UP2U|Energy Strike / Chillax Mint|With a boost of flavor on one side and a relaxing blend on the other, you're all set for whatever mood you're feeling.||United States|0|up2u_energy_strike_chillax_mint.png</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="str">
+        <f>CONCATENATE('Working Data'!A175,"|",'Working Data'!B175,"|",'Working Data'!C175,"|",'Working Data'!D175,"|",'Working Data'!E175,"|",'Working Data'!F175,"|",'Working Data'!G175,"|",'Working Data'!H175,"|",'Working Data'!I175,"|",'Working Data'!J175,"|",'Working Data'!K175,"|",'Working Data'!L175,"|",'Working Data'!M175)</f>
+        <v>up2u_mandarin_strawberry_spearmint|UP2U Mandarin Strawberry / Spearmint||1|0|Perfetti Van Melle Mentos|UP2U|Mandarin Strawberry / Spearmint|Delicious citrus and strawberry living alongside a classic spearmint in harmony.||United States|0|up2u_mandarin_strawberry_spearmint.png</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="str">
+        <f>CONCATENATE('Working Data'!A176,"|",'Working Data'!B176,"|",'Working Data'!C176,"|",'Working Data'!D176,"|",'Working Data'!E176,"|",'Working Data'!F176,"|",'Working Data'!G176,"|",'Working Data'!H176,"|",'Working Data'!I176,"|",'Working Data'!J176,"|",'Working Data'!K176,"|",'Working Data'!L176,"|",'Working Data'!M176)</f>
+        <v>up2u_sweet_mint_bubble_fresh|UP2U Sweet Mint / Bubble Fresh|073390014018|1|0|Perfetti Van Melle Mentos|UP2U|Sweet Mint / Bubble Fresh|Mint with a hint of sweet, snuggled up to yummy bubble gum.  And snuggle they do.||United States|0|up2u_sweet_mint_bubble_fresh.png</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="str">
+        <f>CONCATENATE('Working Data'!A177,"|",'Working Data'!B177,"|",'Working Data'!C177,"|",'Working Data'!D177,"|",'Working Data'!E177,"|",'Working Data'!F177,"|",'Working Data'!G177,"|",'Working Data'!H177,"|",'Working Data'!I177,"|",'Working Data'!J177,"|",'Working Data'!K177,"|",'Working Data'!L177,"|",'Working Data'!M177)</f>
+        <v>bubblicious_watermelon|Bubblicious Watermelon|012546917582|1|0||Bubblicious|Watermelon|||United States|0|</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="str">
+        <f>CONCATENATE('Working Data'!A178,"|",'Working Data'!B178,"|",'Working Data'!C178,"|",'Working Data'!D178,"|",'Working Data'!E178,"|",'Working Data'!F178,"|",'Working Data'!G178,"|",'Working Data'!H178,"|",'Working Data'!I178,"|",'Working Data'!J178,"|",'Working Data'!K178,"|",'Working Data'!L178,"|",'Working Data'!M178)</f>
+        <v>hubba_bubba_crush_orange|Hubba Bubba Crush Orange|022000015587|1|0||Hubba Bubba|Crush Orange|||United States|0|</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="str">
+        <f>CONCATENATE('Working Data'!A179,"|",'Working Data'!B179,"|",'Working Data'!C179,"|",'Working Data'!D179,"|",'Working Data'!E179,"|",'Working Data'!F179,"|",'Working Data'!G179,"|",'Working Data'!H179,"|",'Working Data'!I179,"|",'Working Data'!J179,"|",'Working Data'!K179,"|",'Working Data'!L179,"|",'Working Data'!M179)</f>
+        <v>hubba_bubba_dr_pepper|Hubba Bubba Dr. Pepper|022000015594|1|0||Hubba Bubba|Dr. Pepper|||United States|0|</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="str">
+        <f>CONCATENATE('Working Data'!A180,"|",'Working Data'!B180,"|",'Working Data'!C180,"|",'Working Data'!D180,"|",'Working Data'!E180,"|",'Working Data'!F180,"|",'Working Data'!G180,"|",'Working Data'!H180,"|",'Working Data'!I180,"|",'Working Data'!J180,"|",'Working Data'!K180,"|",'Working Data'!L180,"|",'Working Data'!M180)</f>
+        <v>ice_breakers_ice_cubes_peppermint|ICE BREAKERS (R) Ice Cubes (R) Peppermint|03484308 034000700028|1|0||ICE BREAKERS (R) Ice Cubes (R)|Peppermint|Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="str">
+        <f>CONCATENATE('Working Data'!A181,"|",'Working Data'!B181,"|",'Working Data'!C181,"|",'Working Data'!D181,"|",'Working Data'!E181,"|",'Working Data'!F181,"|",'Working Data'!G181,"|",'Working Data'!H181,"|",'Working Data'!I181,"|",'Working Data'!J181,"|",'Working Data'!K181,"|",'Working Data'!L181,"|",'Working Data'!M181)</f>
+        <v>ice_breakers_ice_cubes_spearmint|ICE BREAKERS (R) Ice Cubes (R) Spearmint|034000700035|1|0||ICE BREAKERS (R) Ice Cubes (R)|Spearmint|Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="str">
+        <f>CONCATENATE('Working Data'!A182,"|",'Working Data'!B182,"|",'Working Data'!C182,"|",'Working Data'!D182,"|",'Working Data'!E182,"|",'Working Data'!F182,"|",'Working Data'!G182,"|",'Working Data'!H182,"|",'Working Data'!I182,"|",'Working Data'!J182,"|",'Working Data'!K182,"|",'Working Data'!L182,"|",'Working Data'!M182)</f>
+        <v>ice_breakers_ice_cubes_rasberry_sorbet|ICE BREAKERS (R) Ice Cubes (R) Rasberry Sorbet|034000700271|1|0||ICE BREAKERS (R) Ice Cubes (R)|Rasberry Sorbet|Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="str">
+        <f>CONCATENATE('Working Data'!A183,"|",'Working Data'!B183,"|",'Working Data'!C183,"|",'Working Data'!D183,"|",'Working Data'!E183,"|",'Working Data'!F183,"|",'Working Data'!G183,"|",'Working Data'!H183,"|",'Working Data'!I183,"|",'Working Data'!J183,"|",'Working Data'!K183,"|",'Working Data'!L183,"|",'Working Data'!M183)</f>
+        <v>ice_breakers_ice_cubes_kiwi_watermelon |ICE BREAKERS (R) Ice Cubes (R) Kiwi Watermelon |034000700189|1|0||ICE BREAKERS (R) Ice Cubes (R)|Kiwi Watermelon |Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="str">
+        <f>CONCATENATE('Working Data'!A184,"|",'Working Data'!B184,"|",'Working Data'!C184,"|",'Working Data'!D184,"|",'Working Data'!E184,"|",'Working Data'!F184,"|",'Working Data'!G184,"|",'Working Data'!H184,"|",'Working Data'!I184,"|",'Working Data'!J184,"|",'Working Data'!K184,"|",'Working Data'!L184,"|",'Working Data'!M184)</f>
+        <v>ice_breakers_ice_cubes_strawberry_smoothie_gum|ICE BREAKERS (R) Ice Cubes (R) Strawberry Smoothie Gum|034000700172|1|0||ICE BREAKERS (R) Ice Cubes (R)|Strawberry Smoothie Gum|Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="str">
+        <f>CONCATENATE('Working Data'!A185,"|",'Working Data'!B185,"|",'Working Data'!C185,"|",'Working Data'!D185,"|",'Working Data'!E185,"|",'Working Data'!F185,"|",'Working Data'!G185,"|",'Working Data'!H185,"|",'Working Data'!I185,"|",'Working Data'!J185,"|",'Working Data'!K185,"|",'Working Data'!L185,"|",'Working Data'!M185)</f>
+        <v>ice_breakers_ice_cubes_wintergreen|ICE BREAKERS (R) Ice Cubes (R) Wintergreen|03452901|1|0||ICE BREAKERS (R) Ice Cubes (R)|Wintergreen|Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="str">
+        <f>CONCATENATE('Working Data'!A186,"|",'Working Data'!B186,"|",'Working Data'!C186,"|",'Working Data'!D186,"|",'Working Data'!E186,"|",'Working Data'!F186,"|",'Working Data'!G186,"|",'Working Data'!H186,"|",'Working Data'!I186,"|",'Working Data'!J186,"|",'Working Data'!K186,"|",'Working Data'!L186,"|",'Working Data'!M186)</f>
+        <v>ice_breakers_ice_cubes_cool_lemon|ICE BREAKERS (R) Ice Cubes (R) Cool Lemon (R)|03462005|1|0||ICE BREAKERS (R) Ice Cubes (R)|Cool Lemon (R)|Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="str">
+        <f>CONCATENATE('Working Data'!A187,"|",'Working Data'!B187,"|",'Working Data'!C187,"|",'Working Data'!D187,"|",'Working Data'!E187,"|",'Working Data'!F187,"|",'Working Data'!G187,"|",'Working Data'!H187,"|",'Working Data'!I187,"|",'Working Data'!J187,"|",'Working Data'!K187,"|",'Working Data'!L187,"|",'Working Data'!M187)</f>
+        <v>ice_breakers_ice_cubes_bubble_breeze|ICE BREAKERS (R) Ice Cubes (R) Bubble Breeze (R)|03464508|1|0||ICE BREAKERS (R) Ice Cubes (R)|Bubble Breeze (R)|Treat your mouth to refreshingly delicious ICE BREAKERS ICE CUBES gum! These frosty cube-shaped pieces of gum are instantly cold and loaded with dazzling flavor crystals. ICE CUBES gum is available in intense mint and sweet fruit flavors.||United States|0|</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="str">
+        <f>CONCATENATE('Working Data'!A188,"|",'Working Data'!B188,"|",'Working Data'!C188,"|",'Working Data'!D188,"|",'Working Data'!E188,"|",'Working Data'!F188,"|",'Working Data'!G188,"|",'Working Data'!H188,"|",'Working Data'!I188,"|",'Working Data'!J188,"|",'Working Data'!K188,"|",'Working Data'!L188,"|",'Working Data'!M188)</f>
+        <v>ice_breakers_ice_cubes_white_mango_kiwi_cooler|ICE BREAKERS (R) Ice Cubes (R) White Mango Kiwi Cooler|034000700363|1|0||ICE BREAKERS (R) Ice Cubes (R) White|Mango Kiwi Cooler|||||</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="str">
+        <f>CONCATENATE('Working Data'!A189,"|",'Working Data'!B189,"|",'Working Data'!C189,"|",'Working Data'!D189,"|",'Working Data'!E189,"|",'Working Data'!F189,"|",'Working Data'!G189,"|",'Working Data'!H189,"|",'Working Data'!I189,"|",'Working Data'!J189,"|",'Working Data'!K189,"|",'Working Data'!L189,"|",'Working Data'!M189)</f>
+        <v>ice_breakers_ice_cubes_white_winter_green_splash|ICE BREAKERS (R) Ice Cubes (R) White Winter Green Splash|034000700417|1|0||ICE BREAKERS (R) Ice Cubes (R) White|Winter Green Splash|||||</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="str">
+        <f>CONCATENATE('Working Data'!A190,"|",'Working Data'!B190,"|",'Working Data'!C190,"|",'Working Data'!D190,"|",'Working Data'!E190,"|",'Working Data'!F190,"|",'Working Data'!G190,"|",'Working Data'!H190,"|",'Working Data'!I190,"|",'Working Data'!J190,"|",'Working Data'!K190,"|",'Working Data'!L190,"|",'Working Data'!M190)</f>
+        <v>ice_breakers_stick_gum_coolmint|ICE BREAKERS (R) Stick Gum Coolmint|034000717804|1|0||ICE BREAKERS (R) Stick Gum|Coolmint|||||</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="str">
+        <f>CONCATENATE('Working Data'!A191,"|",'Working Data'!B191,"|",'Working Data'!C191,"|",'Working Data'!D191,"|",'Working Data'!E191,"|",'Working Data'!F191,"|",'Working Data'!G191,"|",'Working Data'!H191,"|",'Working Data'!I191,"|",'Working Data'!J191,"|",'Working Data'!K191,"|",'Working Data'!L191,"|",'Working Data'!M191)</f>
+        <v>ice_breakers_stick_gum_wintergreen|ICE BREAKERS (R) Stick Gum Wintergreen|034000717811|1|0||ICE BREAKERS (R) Stick Gum|Wintergreen|||||</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="str">
+        <f>CONCATENATE('Working Data'!A192,"|",'Working Data'!B192,"|",'Working Data'!C192,"|",'Working Data'!D192,"|",'Working Data'!E192,"|",'Working Data'!F192,"|",'Working Data'!G192,"|",'Working Data'!H192,"|",'Working Data'!I192,"|",'Working Data'!J192,"|",'Working Data'!K192,"|",'Working Data'!L192,"|",'Working Data'!M192)</f>
+        <v>_| |||0||||||||</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="str">
+        <f>CONCATENATE('Working Data'!A193,"|",'Working Data'!B193,"|",'Working Data'!C193,"|",'Working Data'!D193,"|",'Working Data'!E193,"|",'Working Data'!F193,"|",'Working Data'!G193,"|",'Working Data'!H193,"|",'Working Data'!I193,"|",'Working Data'!J193,"|",'Working Data'!K193,"|",'Working Data'!L193,"|",'Working Data'!M193)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="str">
+        <f>CONCATENATE('Working Data'!A194,"|",'Working Data'!B194,"|",'Working Data'!C194,"|",'Working Data'!D194,"|",'Working Data'!E194,"|",'Working Data'!F194,"|",'Working Data'!G194,"|",'Working Data'!H194,"|",'Working Data'!I194,"|",'Working Data'!J194,"|",'Working Data'!K194,"|",'Working Data'!L194,"|",'Working Data'!M194)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="str">
+        <f>CONCATENATE('Working Data'!A195,"|",'Working Data'!B195,"|",'Working Data'!C195,"|",'Working Data'!D195,"|",'Working Data'!E195,"|",'Working Data'!F195,"|",'Working Data'!G195,"|",'Working Data'!H195,"|",'Working Data'!I195,"|",'Working Data'!J195,"|",'Working Data'!K195,"|",'Working Data'!L195,"|",'Working Data'!M195)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="str">
+        <f>CONCATENATE('Working Data'!A196,"|",'Working Data'!B196,"|",'Working Data'!C196,"|",'Working Data'!D196,"|",'Working Data'!E196,"|",'Working Data'!F196,"|",'Working Data'!G196,"|",'Working Data'!H196,"|",'Working Data'!I196,"|",'Working Data'!J196,"|",'Working Data'!K196,"|",'Working Data'!L196,"|",'Working Data'!M196)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="str">
+        <f>CONCATENATE('Working Data'!A197,"|",'Working Data'!B197,"|",'Working Data'!C197,"|",'Working Data'!D197,"|",'Working Data'!E197,"|",'Working Data'!F197,"|",'Working Data'!G197,"|",'Working Data'!H197,"|",'Working Data'!I197,"|",'Working Data'!J197,"|",'Working Data'!K197,"|",'Working Data'!L197,"|",'Working Data'!M197)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="str">
+        <f>CONCATENATE('Working Data'!A198,"|",'Working Data'!B198,"|",'Working Data'!C198,"|",'Working Data'!D198,"|",'Working Data'!E198,"|",'Working Data'!F198,"|",'Working Data'!G198,"|",'Working Data'!H198,"|",'Working Data'!I198,"|",'Working Data'!J198,"|",'Working Data'!K198,"|",'Working Data'!L198,"|",'Working Data'!M198)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="str">
+        <f>CONCATENATE('Working Data'!A199,"|",'Working Data'!B199,"|",'Working Data'!C199,"|",'Working Data'!D199,"|",'Working Data'!E199,"|",'Working Data'!F199,"|",'Working Data'!G199,"|",'Working Data'!H199,"|",'Working Data'!I199,"|",'Working Data'!J199,"|",'Working Data'!K199,"|",'Working Data'!L199,"|",'Working Data'!M199)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="str">
+        <f>CONCATENATE('Working Data'!A200,"|",'Working Data'!B200,"|",'Working Data'!C200,"|",'Working Data'!D200,"|",'Working Data'!E200,"|",'Working Data'!F200,"|",'Working Data'!G200,"|",'Working Data'!H200,"|",'Working Data'!I200,"|",'Working Data'!J200,"|",'Working Data'!K200,"|",'Working Data'!L200,"|",'Working Data'!M200)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="str">
+        <f>CONCATENATE('Working Data'!A201,"|",'Working Data'!B201,"|",'Working Data'!C201,"|",'Working Data'!D201,"|",'Working Data'!E201,"|",'Working Data'!F201,"|",'Working Data'!G201,"|",'Working Data'!H201,"|",'Working Data'!I201,"|",'Working Data'!J201,"|",'Working Data'!K201,"|",'Working Data'!L201,"|",'Working Data'!M201)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="str">
+        <f>CONCATENATE('Working Data'!A202,"|",'Working Data'!B202,"|",'Working Data'!C202,"|",'Working Data'!D202,"|",'Working Data'!E202,"|",'Working Data'!F202,"|",'Working Data'!G202,"|",'Working Data'!H202,"|",'Working Data'!I202,"|",'Working Data'!J202,"|",'Working Data'!K202,"|",'Working Data'!L202,"|",'Working Data'!M202)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="str">
+        <f>CONCATENATE('Working Data'!A203,"|",'Working Data'!B203,"|",'Working Data'!C203,"|",'Working Data'!D203,"|",'Working Data'!E203,"|",'Working Data'!F203,"|",'Working Data'!G203,"|",'Working Data'!H203,"|",'Working Data'!I203,"|",'Working Data'!J203,"|",'Working Data'!K203,"|",'Working Data'!L203,"|",'Working Data'!M203)</f>
+        <v>_| |||||||||||</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="str">
+        <f>CONCATENATE('Working Data'!A204,"|",'Working Data'!B204,"|",'Working Data'!C204,"|",'Working Data'!D204,"|",'Working Data'!E204,"|",'Working Data'!F204,"|",'Working Data'!G204,"|",'Working Data'!H204,"|",'Working Data'!I204,"|",'Working Data'!J204,"|",'Working Data'!K204,"|",'Working Data'!L204,"|",'Working Data'!M204)</f>
+        <v>||||||||||||</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="str">
+        <f>CONCATENATE('Working Data'!A205,"|",'Working Data'!B205,"|",'Working Data'!C205,"|",'Working Data'!D205,"|",'Working Data'!E205,"|",'Working Data'!F205,"|",'Working Data'!G205,"|",'Working Data'!H205,"|",'Working Data'!I205,"|",'Working Data'!J205,"|",'Working Data'!K205,"|",'Working Data'!L205,"|",'Working Data'!M205)</f>
+        <v>Mentos||||||||||||</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="str">
+        <f>CONCATENATE('Working Data'!A206,"|",'Working Data'!B206,"|",'Working Data'!C206,"|",'Working Data'!D206,"|",'Working Data'!E206,"|",'Working Data'!F206,"|",'Working Data'!G206,"|",'Working Data'!H206,"|",'Working Data'!I206,"|",'Working Data'!J206,"|",'Working Data'!K206,"|",'Working Data'!L206,"|",'Working Data'!M206)</f>
+        <v>||||||||||||</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="str">
+        <f>CONCATENATE('Working Data'!A207,"|",'Working Data'!B207,"|",'Working Data'!C207,"|",'Working Data'!D207,"|",'Working Data'!E207,"|",'Working Data'!F207,"|",'Working Data'!G207,"|",'Working Data'!H207,"|",'Working Data'!I207,"|",'Working Data'!J207,"|",'Working Data'!K207,"|",'Working Data'!L207,"|",'Working Data'!M207)</f>
+        <v>Cane'ls||||||||||||</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="str">
+        <f>CONCATENATE('Working Data'!A208,"|",'Working Data'!B208,"|",'Working Data'!C208,"|",'Working Data'!D208,"|",'Working Data'!E208,"|",'Working Data'!F208,"|",'Working Data'!G208,"|",'Working Data'!H208,"|",'Working Data'!I208,"|",'Working Data'!J208,"|",'Working Data'!K208,"|",'Working Data'!L208,"|",'Working Data'!M208)</f>
+        <v>quench||||||||||||</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="str">
+        <f>CONCATENATE('Working Data'!A209,"|",'Working Data'!B209,"|",'Working Data'!C209,"|",'Working Data'!D209,"|",'Working Data'!E209,"|",'Working Data'!F209,"|",'Working Data'!G209,"|",'Working Data'!H209,"|",'Working Data'!I209,"|",'Working Data'!J209,"|",'Working Data'!K209,"|",'Working Data'!L209,"|",'Working Data'!M209)</f>
+        <v>glee||||||||||||</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="str">
+        <f>CONCATENATE('Working Data'!A210,"|",'Working Data'!B210,"|",'Working Data'!C210,"|",'Working Data'!D210,"|",'Working Data'!E210,"|",'Working Data'!F210,"|",'Working Data'!G210,"|",'Working Data'!H210,"|",'Working Data'!I210,"|",'Working Data'!J210,"|",'Working Data'!K210,"|",'Working Data'!L210,"|",'Working Data'!M210)</f>
+        <v>blackjack||||||||||||</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="str">
+        <f>CONCATENATE('Working Data'!A211,"|",'Working Data'!B211,"|",'Working Data'!C211,"|",'Working Data'!D211,"|",'Working Data'!E211,"|",'Working Data'!F211,"|",'Working Data'!G211,"|",'Working Data'!H211,"|",'Working Data'!I211,"|",'Working Data'!J211,"|",'Working Data'!K211,"|",'Working Data'!L211,"|",'Working Data'!M211)</f>
+        <v>big league||||||||||||</v>
       </c>
     </row>
   </sheetData>

--- a/db/gums seed data v6.xlsx
+++ b/db/gums seed data v6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="0" windowWidth="31700" windowHeight="19120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4560" yWindow="0" windowWidth="31700" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Working Data" sheetId="1" r:id="rId1"/>
@@ -5452,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P384"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
@@ -18211,8 +18211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A327"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView showRuler="0" topLeftCell="A239" workbookViewId="0">
+      <selection sqref="A1:A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
